--- a/doc/Definitions.xlsx
+++ b/doc/Definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenKNX_Module\OAM-LEDModule\OAM-LEDModule\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B4F347-82C8-4BC1-A6AD-95D6ACC3FD58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC8FD60-88C9-4AF6-B312-002B22B2E1B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dimmkurven" sheetId="1" r:id="rId1"/>
@@ -8826,7 +8826,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -14939,8 +14939,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U70" sqref="U70"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20370,8 +20370,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AZ256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y258" sqref="Y258"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20454,7 +20454,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1">
         <v>0</v>
@@ -20467,7 +20467,7 @@
       </c>
       <c r="V1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1)</f>
-        <v>{0, 0, 0, 0,0},</v>
+        <v>{0, 0, 0, 0, 0},</v>
       </c>
       <c r="AE1" t="s">
         <v>18</v>
@@ -20566,7 +20566,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2">
         <f>Dimmkurven!F3</f>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="V2" t="str">
         <f t="shared" ref="V2:V65" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2)</f>
-        <v>{16, 0, 0, 2,1},</v>
+        <v>{16, 0, 0, 2, 1},</v>
       </c>
       <c r="AE2" t="s">
         <v>18</v>
@@ -20679,7 +20679,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <f>Dimmkurven!F4</f>
@@ -20693,7 +20693,7 @@
       </c>
       <c r="V3" t="str">
         <f t="shared" si="0"/>
-        <v>{32, 0, 0, 4,1},</v>
+        <v>{32, 0, 0, 4, 1},</v>
       </c>
       <c r="AE3" t="s">
         <v>18</v>
@@ -20792,7 +20792,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <f>Dimmkurven!F5</f>
@@ -20806,7 +20806,7 @@
       </c>
       <c r="V4" t="str">
         <f t="shared" si="0"/>
-        <v>{48, 0, 0, 5,1},</v>
+        <v>{48, 0, 0, 5, 1},</v>
       </c>
       <c r="AE4" t="s">
         <v>18</v>
@@ -20905,7 +20905,7 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <f>Dimmkurven!F6</f>
@@ -20919,7 +20919,7 @@
       </c>
       <c r="V5" t="str">
         <f t="shared" si="0"/>
-        <v>{64, 0, 0, 7,1},</v>
+        <v>{64, 0, 0, 7, 1},</v>
       </c>
       <c r="AE5" t="s">
         <v>18</v>
@@ -21018,7 +21018,7 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <f>Dimmkurven!F7</f>
@@ -21032,7 +21032,7 @@
       </c>
       <c r="V6" t="str">
         <f t="shared" si="0"/>
-        <v>{80, 0, 0, 9,1},</v>
+        <v>{80, 0, 0, 9, 1},</v>
       </c>
       <c r="AE6" t="s">
         <v>18</v>
@@ -21131,7 +21131,7 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7">
         <f>Dimmkurven!F8</f>
@@ -21145,7 +21145,7 @@
       </c>
       <c r="V7" t="str">
         <f t="shared" si="0"/>
-        <v>{96, 0, 0, 11,1},</v>
+        <v>{96, 0, 0, 11, 1},</v>
       </c>
       <c r="AE7" t="s">
         <v>18</v>
@@ -21244,7 +21244,7 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8">
         <f>Dimmkurven!F9</f>
@@ -21258,7 +21258,7 @@
       </c>
       <c r="V8" t="str">
         <f t="shared" si="0"/>
-        <v>{112, 0, 0, 12,1},</v>
+        <v>{112, 0, 0, 12, 1},</v>
       </c>
       <c r="AE8" t="s">
         <v>18</v>
@@ -21357,7 +21357,7 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9">
         <f>Dimmkurven!F10</f>
@@ -21371,7 +21371,7 @@
       </c>
       <c r="V9" t="str">
         <f t="shared" si="0"/>
-        <v>{128, 0, 0, 14,1},</v>
+        <v>{128, 0, 0, 14, 1},</v>
       </c>
       <c r="AE9" t="s">
         <v>18</v>
@@ -21470,7 +21470,7 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <f>Dimmkurven!F11</f>
@@ -21484,7 +21484,7 @@
       </c>
       <c r="V10" t="str">
         <f t="shared" si="0"/>
-        <v>{144, 0, 0, 16,1},</v>
+        <v>{144, 0, 0, 16, 1},</v>
       </c>
       <c r="AE10" t="s">
         <v>18</v>
@@ -21583,7 +21583,7 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11">
         <f>Dimmkurven!F12</f>
@@ -21597,7 +21597,7 @@
       </c>
       <c r="V11" t="str">
         <f t="shared" si="0"/>
-        <v>{160, 1, 0, 18,1},</v>
+        <v>{160, 1, 0, 18, 1},</v>
       </c>
       <c r="AE11" t="s">
         <v>18</v>
@@ -21696,7 +21696,7 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12">
         <f>Dimmkurven!F13</f>
@@ -21710,7 +21710,7 @@
       </c>
       <c r="V12" t="str">
         <f t="shared" si="0"/>
-        <v>{176, 1, 0, 20,1},</v>
+        <v>{176, 1, 0, 20, 1},</v>
       </c>
       <c r="AE12" t="s">
         <v>18</v>
@@ -21809,7 +21809,7 @@
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <f>Dimmkurven!F14</f>
@@ -21823,7 +21823,7 @@
       </c>
       <c r="V13" t="str">
         <f t="shared" si="0"/>
-        <v>{192, 1, 0, 21,1},</v>
+        <v>{192, 1, 0, 21, 1},</v>
       </c>
       <c r="AE13" t="s">
         <v>18</v>
@@ -21922,7 +21922,7 @@
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14">
         <f>Dimmkurven!F15</f>
@@ -21936,7 +21936,7 @@
       </c>
       <c r="V14" t="str">
         <f t="shared" si="0"/>
-        <v>{208, 1, 0, 23,2},</v>
+        <v>{208, 1, 0, 23, 2},</v>
       </c>
       <c r="AE14" t="s">
         <v>18</v>
@@ -22035,7 +22035,7 @@
         <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15">
         <f>Dimmkurven!F16</f>
@@ -22049,7 +22049,7 @@
       </c>
       <c r="V15" t="str">
         <f t="shared" si="0"/>
-        <v>{224, 1, 0, 25,2},</v>
+        <v>{224, 1, 0, 25, 2},</v>
       </c>
       <c r="AE15" t="s">
         <v>18</v>
@@ -22148,7 +22148,7 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16">
         <f>Dimmkurven!F17</f>
@@ -22162,7 +22162,7 @@
       </c>
       <c r="V16" t="str">
         <f t="shared" si="0"/>
-        <v>{240, 2, 0, 27,2},</v>
+        <v>{240, 2, 0, 27, 2},</v>
       </c>
       <c r="AE16" t="s">
         <v>18</v>
@@ -22261,7 +22261,7 @@
         <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17">
         <f>Dimmkurven!F18</f>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="V17" t="str">
         <f t="shared" si="0"/>
-        <v>{256, 2, 0, 28,2},</v>
+        <v>{256, 2, 0, 28, 2},</v>
       </c>
       <c r="AE17" t="s">
         <v>18</v>
@@ -22374,7 +22374,7 @@
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J18">
         <f>Dimmkurven!F19</f>
@@ -22388,7 +22388,7 @@
       </c>
       <c r="V18" t="str">
         <f t="shared" si="0"/>
-        <v>{272, 2, 0, 30,2},</v>
+        <v>{272, 2, 0, 30, 2},</v>
       </c>
       <c r="AE18" t="s">
         <v>18</v>
@@ -22487,7 +22487,7 @@
         <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J19">
         <f>Dimmkurven!F20</f>
@@ -22501,7 +22501,7 @@
       </c>
       <c r="V19" t="str">
         <f t="shared" si="0"/>
-        <v>{288, 3, 0, 32,2},</v>
+        <v>{288, 3, 0, 32, 2},</v>
       </c>
       <c r="AE19" t="s">
         <v>18</v>
@@ -22600,7 +22600,7 @@
         <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J20">
         <f>Dimmkurven!F21</f>
@@ -22614,7 +22614,7 @@
       </c>
       <c r="V20" t="str">
         <f t="shared" si="0"/>
-        <v>{304, 3, 0, 34,2},</v>
+        <v>{304, 3, 0, 34, 2},</v>
       </c>
       <c r="AE20" t="s">
         <v>18</v>
@@ -22713,7 +22713,7 @@
         <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21">
         <f>Dimmkurven!F22</f>
@@ -22727,7 +22727,7 @@
       </c>
       <c r="V21" t="str">
         <f t="shared" si="0"/>
-        <v>{320, 4, 0, 36,2},</v>
+        <v>{320, 4, 0, 36, 2},</v>
       </c>
       <c r="AE21" t="s">
         <v>18</v>
@@ -22826,7 +22826,7 @@
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J22">
         <f>Dimmkurven!F23</f>
@@ -22840,7 +22840,7 @@
       </c>
       <c r="V22" t="str">
         <f t="shared" si="0"/>
-        <v>{336, 4, 0, 37,2},</v>
+        <v>{336, 4, 0, 37, 2},</v>
       </c>
       <c r="AE22" t="s">
         <v>18</v>
@@ -22939,7 +22939,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23">
         <f>Dimmkurven!F24</f>
@@ -22953,7 +22953,7 @@
       </c>
       <c r="V23" t="str">
         <f t="shared" si="0"/>
-        <v>{352, 5, 0, 39,2},</v>
+        <v>{352, 5, 0, 39, 2},</v>
       </c>
       <c r="AE23" t="s">
         <v>18</v>
@@ -23052,7 +23052,7 @@
         <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J24">
         <f>Dimmkurven!F25</f>
@@ -23066,7 +23066,7 @@
       </c>
       <c r="V24" t="str">
         <f t="shared" si="0"/>
-        <v>{368, 5, 1, 41,2},</v>
+        <v>{368, 5, 1, 41, 2},</v>
       </c>
       <c r="AE24" t="s">
         <v>18</v>
@@ -23165,7 +23165,7 @@
         <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J25">
         <f>Dimmkurven!F26</f>
@@ -23179,7 +23179,7 @@
       </c>
       <c r="V25" t="str">
         <f t="shared" si="0"/>
-        <v>{384, 6, 1, 43,2},</v>
+        <v>{384, 6, 1, 43, 2},</v>
       </c>
       <c r="AE25" t="s">
         <v>18</v>
@@ -23278,7 +23278,7 @@
         <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J26">
         <f>Dimmkurven!F27</f>
@@ -23292,7 +23292,7 @@
       </c>
       <c r="V26" t="str">
         <f t="shared" si="0"/>
-        <v>{400, 7, 1, 45,2},</v>
+        <v>{400, 7, 1, 45, 2},</v>
       </c>
       <c r="AE26" t="s">
         <v>18</v>
@@ -23391,7 +23391,7 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27">
         <f>Dimmkurven!F28</f>
@@ -23405,7 +23405,7 @@
       </c>
       <c r="V27" t="str">
         <f t="shared" si="0"/>
-        <v>{416, 8, 1, 47,2},</v>
+        <v>{416, 8, 1, 47, 2},</v>
       </c>
       <c r="AE27" t="s">
         <v>18</v>
@@ -23504,7 +23504,7 @@
         <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J28">
         <f>Dimmkurven!F29</f>
@@ -23518,7 +23518,7 @@
       </c>
       <c r="V28" t="str">
         <f t="shared" si="0"/>
-        <v>{432, 8, 1, 49,2},</v>
+        <v>{432, 8, 1, 49, 2},</v>
       </c>
       <c r="AE28" t="s">
         <v>18</v>
@@ -23617,7 +23617,7 @@
         <v>52</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J29">
         <f>Dimmkurven!F30</f>
@@ -23631,7 +23631,7 @@
       </c>
       <c r="V29" t="str">
         <f t="shared" si="0"/>
-        <v>{448, 9, 1, 52,2},</v>
+        <v>{448, 9, 1, 52, 2},</v>
       </c>
       <c r="AE29" t="s">
         <v>18</v>
@@ -23730,7 +23730,7 @@
         <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J30">
         <f>Dimmkurven!F31</f>
@@ -23744,7 +23744,7 @@
       </c>
       <c r="V30" t="str">
         <f t="shared" si="0"/>
-        <v>{464, 10, 1, 54,3},</v>
+        <v>{464, 10, 1, 54, 3},</v>
       </c>
       <c r="AE30" t="s">
         <v>18</v>
@@ -23843,7 +23843,7 @@
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J31">
         <f>Dimmkurven!F32</f>
@@ -23857,7 +23857,7 @@
       </c>
       <c r="V31" t="str">
         <f t="shared" si="0"/>
-        <v>{480, 11, 1, 56,3},</v>
+        <v>{480, 11, 1, 56, 3},</v>
       </c>
       <c r="AE31" t="s">
         <v>18</v>
@@ -23956,7 +23956,7 @@
         <v>59</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J32">
         <f>Dimmkurven!F33</f>
@@ -23970,7 +23970,7 @@
       </c>
       <c r="V32" t="str">
         <f t="shared" si="0"/>
-        <v>{496, 12, 2, 59,3},</v>
+        <v>{496, 12, 2, 59, 3},</v>
       </c>
       <c r="AE32" t="s">
         <v>18</v>
@@ -24069,7 +24069,7 @@
         <v>61</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J33">
         <f>Dimmkurven!F34</f>
@@ -24083,7 +24083,7 @@
       </c>
       <c r="V33" t="str">
         <f t="shared" si="0"/>
-        <v>{512, 13, 2, 61,3},</v>
+        <v>{512, 13, 2, 61, 3},</v>
       </c>
       <c r="AE33" t="s">
         <v>18</v>
@@ -24182,7 +24182,7 @@
         <v>64</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J34">
         <f>Dimmkurven!F35</f>
@@ -24196,7 +24196,7 @@
       </c>
       <c r="V34" t="str">
         <f t="shared" si="0"/>
-        <v>{528, 15, 2, 64,3},</v>
+        <v>{528, 15, 2, 64, 3},</v>
       </c>
       <c r="AE34" t="s">
         <v>18</v>
@@ -24295,7 +24295,7 @@
         <v>66</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J35">
         <f>Dimmkurven!F36</f>
@@ -24309,7 +24309,7 @@
       </c>
       <c r="V35" t="str">
         <f t="shared" si="0"/>
-        <v>{544, 16, 2, 66,3},</v>
+        <v>{544, 16, 2, 66, 3},</v>
       </c>
       <c r="AE35" t="s">
         <v>18</v>
@@ -24408,7 +24408,7 @@
         <v>69</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J36">
         <f>Dimmkurven!F37</f>
@@ -24422,7 +24422,7 @@
       </c>
       <c r="V36" t="str">
         <f t="shared" si="0"/>
-        <v>{560, 17, 2, 69,3},</v>
+        <v>{560, 17, 2, 69, 3},</v>
       </c>
       <c r="AE36" t="s">
         <v>18</v>
@@ -24521,7 +24521,7 @@
         <v>72</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J37">
         <f>Dimmkurven!F38</f>
@@ -24535,7 +24535,7 @@
       </c>
       <c r="V37" t="str">
         <f t="shared" si="0"/>
-        <v>{576, 18, 3, 72,3},</v>
+        <v>{576, 18, 3, 72, 3},</v>
       </c>
       <c r="AE37" t="s">
         <v>18</v>
@@ -24634,7 +24634,7 @@
         <v>75</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J38">
         <f>Dimmkurven!F39</f>
@@ -24648,7 +24648,7 @@
       </c>
       <c r="V38" t="str">
         <f t="shared" si="0"/>
-        <v>{592, 20, 3, 75,3},</v>
+        <v>{592, 20, 3, 75, 3},</v>
       </c>
       <c r="AE38" t="s">
         <v>18</v>
@@ -24747,7 +24747,7 @@
         <v>77</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J39">
         <f>Dimmkurven!F40</f>
@@ -24761,7 +24761,7 @@
       </c>
       <c r="V39" t="str">
         <f t="shared" si="0"/>
-        <v>{608, 21, 3, 77,3},</v>
+        <v>{608, 21, 3, 77, 3},</v>
       </c>
       <c r="AE39" t="s">
         <v>18</v>
@@ -24860,7 +24860,7 @@
         <v>80</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J40">
         <f>Dimmkurven!F41</f>
@@ -24874,7 +24874,7 @@
       </c>
       <c r="V40" t="str">
         <f t="shared" si="0"/>
-        <v>{624, 23, 4, 80,4},</v>
+        <v>{624, 23, 4, 80, 4},</v>
       </c>
       <c r="AE40" t="s">
         <v>18</v>
@@ -24973,7 +24973,7 @@
         <v>83</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J41">
         <f>Dimmkurven!F42</f>
@@ -24987,7 +24987,7 @@
       </c>
       <c r="V41" t="str">
         <f t="shared" si="0"/>
-        <v>{640, 25, 4, 83,4},</v>
+        <v>{640, 25, 4, 83, 4},</v>
       </c>
       <c r="AE41" t="s">
         <v>18</v>
@@ -25086,7 +25086,7 @@
         <v>87</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J42">
         <f>Dimmkurven!F43</f>
@@ -25100,7 +25100,7 @@
       </c>
       <c r="V42" t="str">
         <f t="shared" si="0"/>
-        <v>{656, 26, 4, 87,4},</v>
+        <v>{656, 26, 4, 87, 4},</v>
       </c>
       <c r="AE42" t="s">
         <v>18</v>
@@ -25199,7 +25199,7 @@
         <v>90</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J43">
         <f>Dimmkurven!F44</f>
@@ -25213,7 +25213,7 @@
       </c>
       <c r="V43" t="str">
         <f t="shared" si="0"/>
-        <v>{672, 28, 5, 90,4},</v>
+        <v>{672, 28, 5, 90, 4},</v>
       </c>
       <c r="AE43" t="s">
         <v>18</v>
@@ -25312,7 +25312,7 @@
         <v>93</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J44">
         <f>Dimmkurven!F45</f>
@@ -25326,7 +25326,7 @@
       </c>
       <c r="V44" t="str">
         <f t="shared" si="0"/>
-        <v>{688, 30, 5, 93,4},</v>
+        <v>{688, 30, 5, 93, 4},</v>
       </c>
       <c r="AE44" t="s">
         <v>18</v>
@@ -25425,7 +25425,7 @@
         <v>97</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J45">
         <f>Dimmkurven!F46</f>
@@ -25439,7 +25439,7 @@
       </c>
       <c r="V45" t="str">
         <f t="shared" si="0"/>
-        <v>{704, 32, 6, 97,4},</v>
+        <v>{704, 32, 6, 97, 4},</v>
       </c>
       <c r="AE45" t="s">
         <v>18</v>
@@ -25538,7 +25538,7 @@
         <v>100</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J46">
         <f>Dimmkurven!F47</f>
@@ -25552,7 +25552,7 @@
       </c>
       <c r="V46" t="str">
         <f t="shared" si="0"/>
-        <v>{720, 34, 6, 100,4},</v>
+        <v>{720, 34, 6, 100, 4},</v>
       </c>
       <c r="AE46" t="s">
         <v>18</v>
@@ -25651,7 +25651,7 @@
         <v>103</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J47">
         <f>Dimmkurven!F48</f>
@@ -25665,7 +25665,7 @@
       </c>
       <c r="V47" t="str">
         <f t="shared" si="0"/>
-        <v>{736, 36, 7, 103,4},</v>
+        <v>{736, 36, 7, 103, 4},</v>
       </c>
       <c r="AE47" t="s">
         <v>18</v>
@@ -25764,7 +25764,7 @@
         <v>107</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J48">
         <f>Dimmkurven!F49</f>
@@ -25778,7 +25778,7 @@
       </c>
       <c r="V48" t="str">
         <f t="shared" si="0"/>
-        <v>{752, 38, 7, 107,5},</v>
+        <v>{752, 38, 7, 107, 5},</v>
       </c>
       <c r="AE48" t="s">
         <v>18</v>
@@ -25877,7 +25877,7 @@
         <v>111</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J49">
         <f>Dimmkurven!F50</f>
@@ -25891,7 +25891,7 @@
       </c>
       <c r="V49" t="str">
         <f t="shared" si="0"/>
-        <v>{768, 40, 8, 111,5},</v>
+        <v>{768, 40, 8, 111, 5},</v>
       </c>
       <c r="AE49" t="s">
         <v>18</v>
@@ -25990,7 +25990,7 @@
         <v>115</v>
       </c>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J50">
         <f>Dimmkurven!F51</f>
@@ -26004,7 +26004,7 @@
       </c>
       <c r="V50" t="str">
         <f t="shared" si="0"/>
-        <v>{784, 43, 8, 115,5},</v>
+        <v>{784, 43, 8, 115, 5},</v>
       </c>
       <c r="AE50" t="s">
         <v>18</v>
@@ -26103,7 +26103,7 @@
         <v>118</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J51">
         <f>Dimmkurven!F52</f>
@@ -26117,7 +26117,7 @@
       </c>
       <c r="V51" t="str">
         <f t="shared" si="0"/>
-        <v>{800, 45, 9, 118,5},</v>
+        <v>{800, 45, 9, 118, 5},</v>
       </c>
       <c r="AE51" t="s">
         <v>18</v>
@@ -26216,7 +26216,7 @@
         <v>122</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J52">
         <f>Dimmkurven!F53</f>
@@ -26230,7 +26230,7 @@
       </c>
       <c r="V52" t="str">
         <f t="shared" si="0"/>
-        <v>{816, 48, 10, 122,5},</v>
+        <v>{816, 48, 10, 122, 5},</v>
       </c>
       <c r="AE52" t="s">
         <v>18</v>
@@ -26329,7 +26329,7 @@
         <v>126</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J53">
         <f>Dimmkurven!F54</f>
@@ -26343,7 +26343,7 @@
       </c>
       <c r="V53" t="str">
         <f t="shared" si="0"/>
-        <v>{832, 50, 10, 126,5},</v>
+        <v>{832, 50, 10, 126, 5},</v>
       </c>
       <c r="AE53" t="s">
         <v>18</v>
@@ -26442,7 +26442,7 @@
         <v>131</v>
       </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J54">
         <f>Dimmkurven!F55</f>
@@ -26456,7 +26456,7 @@
       </c>
       <c r="V54" t="str">
         <f t="shared" si="0"/>
-        <v>{848, 53, 11, 131,6},</v>
+        <v>{848, 53, 11, 131, 6},</v>
       </c>
       <c r="AE54" t="s">
         <v>18</v>
@@ -26555,7 +26555,7 @@
         <v>135</v>
       </c>
       <c r="I55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J55">
         <f>Dimmkurven!F56</f>
@@ -26569,7 +26569,7 @@
       </c>
       <c r="V55" t="str">
         <f t="shared" si="0"/>
-        <v>{864, 56, 12, 135,6},</v>
+        <v>{864, 56, 12, 135, 6},</v>
       </c>
       <c r="AE55" t="s">
         <v>18</v>
@@ -26668,7 +26668,7 @@
         <v>139</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J56">
         <f>Dimmkurven!F57</f>
@@ -26682,7 +26682,7 @@
       </c>
       <c r="V56" t="str">
         <f t="shared" si="0"/>
-        <v>{880, 59, 13, 139,6},</v>
+        <v>{880, 59, 13, 139, 6},</v>
       </c>
       <c r="AE56" t="s">
         <v>18</v>
@@ -26781,7 +26781,7 @@
         <v>144</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J57">
         <f>Dimmkurven!F58</f>
@@ -26795,7 +26795,7 @@
       </c>
       <c r="V57" t="str">
         <f t="shared" si="0"/>
-        <v>{896, 62, 14, 144,6},</v>
+        <v>{896, 62, 14, 144, 6},</v>
       </c>
       <c r="AE57" t="s">
         <v>18</v>
@@ -26894,7 +26894,7 @@
         <v>148</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J58">
         <f>Dimmkurven!F59</f>
@@ -26908,7 +26908,7 @@
       </c>
       <c r="V58" t="str">
         <f t="shared" si="0"/>
-        <v>{912, 65, 15, 148,6},</v>
+        <v>{912, 65, 15, 148, 6},</v>
       </c>
       <c r="AE58" t="s">
         <v>18</v>
@@ -27007,7 +27007,7 @@
         <v>153</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J59">
         <f>Dimmkurven!F60</f>
@@ -27021,7 +27021,7 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="0"/>
-        <v>{928, 68, 16, 153,7},</v>
+        <v>{928, 68, 16, 153, 7},</v>
       </c>
       <c r="AE59" t="s">
         <v>18</v>
@@ -27120,7 +27120,7 @@
         <v>157</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J60">
         <f>Dimmkurven!F61</f>
@@ -27134,7 +27134,7 @@
       </c>
       <c r="V60" t="str">
         <f t="shared" si="0"/>
-        <v>{944, 71, 17, 157,7},</v>
+        <v>{944, 71, 17, 157, 7},</v>
       </c>
       <c r="AE60" t="s">
         <v>18</v>
@@ -27233,7 +27233,7 @@
         <v>162</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J61">
         <f>Dimmkurven!F62</f>
@@ -27247,7 +27247,7 @@
       </c>
       <c r="V61" t="str">
         <f t="shared" si="0"/>
-        <v>{960, 75, 18, 162,7},</v>
+        <v>{960, 75, 18, 162, 7},</v>
       </c>
       <c r="AE61" t="s">
         <v>18</v>
@@ -27346,7 +27346,7 @@
         <v>167</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J62">
         <f>Dimmkurven!F63</f>
@@ -27360,7 +27360,7 @@
       </c>
       <c r="V62" t="str">
         <f t="shared" si="0"/>
-        <v>{976, 78, 19, 167,7},</v>
+        <v>{976, 78, 19, 167, 7},</v>
       </c>
       <c r="AE62" t="s">
         <v>18</v>
@@ -27459,7 +27459,7 @@
         <v>172</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J63">
         <f>Dimmkurven!F64</f>
@@ -27473,7 +27473,7 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="0"/>
-        <v>{992, 82, 20, 172,8},</v>
+        <v>{992, 82, 20, 172, 8},</v>
       </c>
       <c r="AE63" t="s">
         <v>18</v>
@@ -27572,7 +27572,7 @@
         <v>177</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J64">
         <f>Dimmkurven!F65</f>
@@ -27586,7 +27586,7 @@
       </c>
       <c r="V64" t="str">
         <f t="shared" si="0"/>
-        <v>{1008, 85, 21, 177,8},</v>
+        <v>{1008, 85, 21, 177, 8},</v>
       </c>
       <c r="AE64" t="s">
         <v>18</v>
@@ -27685,7 +27685,7 @@
         <v>182</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J65">
         <f>Dimmkurven!F66</f>
@@ -27699,7 +27699,7 @@
       </c>
       <c r="V65" t="str">
         <f t="shared" si="0"/>
-        <v>{1024, 89, 23, 182,8},</v>
+        <v>{1024, 89, 23, 182, 8},</v>
       </c>
       <c r="AE65" t="s">
         <v>18</v>
@@ -27798,7 +27798,7 @@
         <v>187</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J66">
         <f>Dimmkurven!F67</f>
@@ -27812,7 +27812,7 @@
       </c>
       <c r="V66" t="str">
         <f t="shared" ref="V66:V129" si="6">CONCATENATE(A66,B66,C66,D66,E66,F66,G66,H66,I66,J66,K66,L66)</f>
-        <v>{1040, 93, 24, 187,8},</v>
+        <v>{1040, 93, 24, 187, 8},</v>
       </c>
       <c r="AE66" t="s">
         <v>18</v>
@@ -27911,7 +27911,7 @@
         <v>193</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J67">
         <f>Dimmkurven!F68</f>
@@ -27925,7 +27925,7 @@
       </c>
       <c r="V67" t="str">
         <f t="shared" si="6"/>
-        <v>{1056, 97, 25, 193,9},</v>
+        <v>{1056, 97, 25, 193, 9},</v>
       </c>
       <c r="AE67" t="s">
         <v>18</v>
@@ -28024,7 +28024,7 @@
         <v>198</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J68">
         <f>Dimmkurven!F69</f>
@@ -28038,7 +28038,7 @@
       </c>
       <c r="V68" t="str">
         <f t="shared" si="6"/>
-        <v>{1072, 101, 27, 198,9},</v>
+        <v>{1072, 101, 27, 198, 9},</v>
       </c>
       <c r="AE68" t="s">
         <v>18</v>
@@ -28137,7 +28137,7 @@
         <v>204</v>
       </c>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J69">
         <f>Dimmkurven!F70</f>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="V69" t="str">
         <f t="shared" si="6"/>
-        <v>{1088, 105, 29, 204,9},</v>
+        <v>{1088, 105, 29, 204, 9},</v>
       </c>
       <c r="AE69" t="s">
         <v>18</v>
@@ -28250,7 +28250,7 @@
         <v>209</v>
       </c>
       <c r="I70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J70">
         <f>Dimmkurven!F71</f>
@@ -28264,7 +28264,7 @@
       </c>
       <c r="V70" t="str">
         <f t="shared" si="6"/>
-        <v>{1104, 110, 30, 209,9},</v>
+        <v>{1104, 110, 30, 209, 9},</v>
       </c>
       <c r="AE70" t="s">
         <v>18</v>
@@ -28363,7 +28363,7 @@
         <v>215</v>
       </c>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J71">
         <f>Dimmkurven!F72</f>
@@ -28377,7 +28377,7 @@
       </c>
       <c r="V71" t="str">
         <f t="shared" si="6"/>
-        <v>{1120, 114, 32, 215,10},</v>
+        <v>{1120, 114, 32, 215, 10},</v>
       </c>
       <c r="AE71" t="s">
         <v>18</v>
@@ -28476,7 +28476,7 @@
         <v>221</v>
       </c>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J72">
         <f>Dimmkurven!F73</f>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="V72" t="str">
         <f t="shared" si="6"/>
-        <v>{1136, 119, 34, 221,10},</v>
+        <v>{1136, 119, 34, 221, 10},</v>
       </c>
       <c r="AE72" t="s">
         <v>18</v>
@@ -28589,7 +28589,7 @@
         <v>227</v>
       </c>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J73">
         <f>Dimmkurven!F74</f>
@@ -28603,7 +28603,7 @@
       </c>
       <c r="V73" t="str">
         <f t="shared" si="6"/>
-        <v>{1152, 123, 35, 227,10},</v>
+        <v>{1152, 123, 35, 227, 10},</v>
       </c>
       <c r="AE73" t="s">
         <v>18</v>
@@ -28702,7 +28702,7 @@
         <v>233</v>
       </c>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J74">
         <f>Dimmkurven!F75</f>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="V74" t="str">
         <f t="shared" si="6"/>
-        <v>{1168, 128, 37, 233,11},</v>
+        <v>{1168, 128, 37, 233, 11},</v>
       </c>
       <c r="AE74" t="s">
         <v>18</v>
@@ -28815,7 +28815,7 @@
         <v>239</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J75">
         <f>Dimmkurven!F76</f>
@@ -28829,7 +28829,7 @@
       </c>
       <c r="V75" t="str">
         <f t="shared" si="6"/>
-        <v>{1184, 133, 39, 239,11},</v>
+        <v>{1184, 133, 39, 239, 11},</v>
       </c>
       <c r="AE75" t="s">
         <v>18</v>
@@ -28928,7 +28928,7 @@
         <v>246</v>
       </c>
       <c r="I76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J76">
         <f>Dimmkurven!F77</f>
@@ -28942,7 +28942,7 @@
       </c>
       <c r="V76" t="str">
         <f t="shared" si="6"/>
-        <v>{1200, 138, 41, 246,12},</v>
+        <v>{1200, 138, 41, 246, 12},</v>
       </c>
       <c r="AE76" t="s">
         <v>18</v>
@@ -29041,7 +29041,7 @@
         <v>252</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J77">
         <f>Dimmkurven!F78</f>
@@ -29055,7 +29055,7 @@
       </c>
       <c r="V77" t="str">
         <f t="shared" si="6"/>
-        <v>{1216, 143, 43, 252,12},</v>
+        <v>{1216, 143, 43, 252, 12},</v>
       </c>
       <c r="AE77" t="s">
         <v>18</v>
@@ -29154,7 +29154,7 @@
         <v>259</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J78">
         <f>Dimmkurven!F79</f>
@@ -29168,7 +29168,7 @@
       </c>
       <c r="V78" t="str">
         <f t="shared" si="6"/>
-        <v>{1232, 149, 45, 259,12},</v>
+        <v>{1232, 149, 45, 259, 12},</v>
       </c>
       <c r="AE78" t="s">
         <v>18</v>
@@ -29267,7 +29267,7 @@
         <v>265</v>
       </c>
       <c r="I79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J79">
         <f>Dimmkurven!F80</f>
@@ -29281,7 +29281,7 @@
       </c>
       <c r="V79" t="str">
         <f t="shared" si="6"/>
-        <v>{1248, 154, 48, 265,13},</v>
+        <v>{1248, 154, 48, 265, 13},</v>
       </c>
       <c r="AE79" t="s">
         <v>18</v>
@@ -29380,7 +29380,7 @@
         <v>272</v>
       </c>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J80">
         <f>Dimmkurven!F81</f>
@@ -29394,7 +29394,7 @@
       </c>
       <c r="V80" t="str">
         <f t="shared" si="6"/>
-        <v>{1264, 159, 50, 272,13},</v>
+        <v>{1264, 159, 50, 272, 13},</v>
       </c>
       <c r="AE80" t="s">
         <v>18</v>
@@ -29493,7 +29493,7 @@
         <v>279</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J81">
         <f>Dimmkurven!F82</f>
@@ -29507,7 +29507,7 @@
       </c>
       <c r="V81" t="str">
         <f t="shared" si="6"/>
-        <v>{1280, 165, 52, 279,14},</v>
+        <v>{1280, 165, 52, 279, 14},</v>
       </c>
       <c r="AE81" t="s">
         <v>18</v>
@@ -29606,7 +29606,7 @@
         <v>286</v>
       </c>
       <c r="I82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J82">
         <f>Dimmkurven!F83</f>
@@ -29620,7 +29620,7 @@
       </c>
       <c r="V82" t="str">
         <f t="shared" si="6"/>
-        <v>{1296, 171, 55, 286,14},</v>
+        <v>{1296, 171, 55, 286, 14},</v>
       </c>
       <c r="AE82" t="s">
         <v>18</v>
@@ -29719,7 +29719,7 @@
         <v>293</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J83">
         <f>Dimmkurven!F84</f>
@@ -29733,7 +29733,7 @@
       </c>
       <c r="V83" t="str">
         <f t="shared" si="6"/>
-        <v>{1312, 177, 58, 293,15},</v>
+        <v>{1312, 177, 58, 293, 15},</v>
       </c>
       <c r="AE83" t="s">
         <v>18</v>
@@ -29832,7 +29832,7 @@
         <v>300</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J84">
         <f>Dimmkurven!F85</f>
@@ -29846,7 +29846,7 @@
       </c>
       <c r="V84" t="str">
         <f t="shared" si="6"/>
-        <v>{1328, 183, 60, 300,15},</v>
+        <v>{1328, 183, 60, 300, 15},</v>
       </c>
       <c r="AE84" t="s">
         <v>18</v>
@@ -29945,7 +29945,7 @@
         <v>308</v>
       </c>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J85">
         <f>Dimmkurven!F86</f>
@@ -29959,7 +29959,7 @@
       </c>
       <c r="V85" t="str">
         <f t="shared" si="6"/>
-        <v>{1344, 189, 63, 308,15},</v>
+        <v>{1344, 189, 63, 308, 15},</v>
       </c>
       <c r="AE85" t="s">
         <v>18</v>
@@ -30058,7 +30058,7 @@
         <v>315</v>
       </c>
       <c r="I86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J86">
         <f>Dimmkurven!F87</f>
@@ -30072,7 +30072,7 @@
       </c>
       <c r="V86" t="str">
         <f t="shared" si="6"/>
-        <v>{1360, 195, 66, 315,16},</v>
+        <v>{1360, 195, 66, 315, 16},</v>
       </c>
       <c r="AE86" t="s">
         <v>18</v>
@@ -30171,7 +30171,7 @@
         <v>323</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J87">
         <f>Dimmkurven!F88</f>
@@ -30185,7 +30185,7 @@
       </c>
       <c r="V87" t="str">
         <f t="shared" si="6"/>
-        <v>{1376, 202, 69, 323,17},</v>
+        <v>{1376, 202, 69, 323, 17},</v>
       </c>
       <c r="AE87" t="s">
         <v>18</v>
@@ -30284,7 +30284,7 @@
         <v>330</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J88">
         <f>Dimmkurven!F89</f>
@@ -30298,7 +30298,7 @@
       </c>
       <c r="V88" t="str">
         <f t="shared" si="6"/>
-        <v>{1392, 208, 72, 330,17},</v>
+        <v>{1392, 208, 72, 330, 17},</v>
       </c>
       <c r="AE88" t="s">
         <v>18</v>
@@ -30397,7 +30397,7 @@
         <v>338</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J89">
         <f>Dimmkurven!F90</f>
@@ -30411,7 +30411,7 @@
       </c>
       <c r="V89" t="str">
         <f t="shared" si="6"/>
-        <v>{1408, 215, 75, 338,18},</v>
+        <v>{1408, 215, 75, 338, 18},</v>
       </c>
       <c r="AE89" t="s">
         <v>18</v>
@@ -30510,7 +30510,7 @@
         <v>346</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J90">
         <f>Dimmkurven!F91</f>
@@ -30524,7 +30524,7 @@
       </c>
       <c r="V90" t="str">
         <f t="shared" si="6"/>
-        <v>{1424, 222, 78, 346,18},</v>
+        <v>{1424, 222, 78, 346, 18},</v>
       </c>
       <c r="AE90" t="s">
         <v>18</v>
@@ -30623,7 +30623,7 @@
         <v>354</v>
       </c>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J91">
         <f>Dimmkurven!F92</f>
@@ -30637,7 +30637,7 @@
       </c>
       <c r="V91" t="str">
         <f t="shared" si="6"/>
-        <v>{1440, 229, 82, 354,19},</v>
+        <v>{1440, 229, 82, 354, 19},</v>
       </c>
       <c r="AE91" t="s">
         <v>18</v>
@@ -30736,7 +30736,7 @@
         <v>362</v>
       </c>
       <c r="I92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J92">
         <f>Dimmkurven!F93</f>
@@ -30750,7 +30750,7 @@
       </c>
       <c r="V92" t="str">
         <f t="shared" si="6"/>
-        <v>{1456, 236, 85, 362,19},</v>
+        <v>{1456, 236, 85, 362, 19},</v>
       </c>
       <c r="AE92" t="s">
         <v>18</v>
@@ -30849,7 +30849,7 @@
         <v>371</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J93">
         <f>Dimmkurven!F94</f>
@@ -30863,7 +30863,7 @@
       </c>
       <c r="V93" t="str">
         <f t="shared" si="6"/>
-        <v>{1472, 243, 89, 371,20},</v>
+        <v>{1472, 243, 89, 371, 20},</v>
       </c>
       <c r="AE93" t="s">
         <v>18</v>
@@ -30962,7 +30962,7 @@
         <v>379</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J94">
         <f>Dimmkurven!F95</f>
@@ -30976,7 +30976,7 @@
       </c>
       <c r="V94" t="str">
         <f t="shared" si="6"/>
-        <v>{1488, 250, 92, 379,21},</v>
+        <v>{1488, 250, 92, 379, 21},</v>
       </c>
       <c r="AE94" t="s">
         <v>18</v>
@@ -31075,7 +31075,7 @@
         <v>388</v>
       </c>
       <c r="I95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J95">
         <f>Dimmkurven!F96</f>
@@ -31089,7 +31089,7 @@
       </c>
       <c r="V95" t="str">
         <f t="shared" si="6"/>
-        <v>{1504, 258, 96, 388,21},</v>
+        <v>{1504, 258, 96, 388, 21},</v>
       </c>
       <c r="AE95" t="s">
         <v>18</v>
@@ -31188,7 +31188,7 @@
         <v>396</v>
       </c>
       <c r="I96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J96">
         <f>Dimmkurven!F97</f>
@@ -31202,7 +31202,7 @@
       </c>
       <c r="V96" t="str">
         <f t="shared" si="6"/>
-        <v>{1520, 266, 100, 396,22},</v>
+        <v>{1520, 266, 100, 396, 22},</v>
       </c>
       <c r="AE96" t="s">
         <v>18</v>
@@ -31301,7 +31301,7 @@
         <v>405</v>
       </c>
       <c r="I97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J97">
         <f>Dimmkurven!F98</f>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="V97" t="str">
         <f t="shared" si="6"/>
-        <v>{1536, 274, 104, 405,23},</v>
+        <v>{1536, 274, 104, 405, 23},</v>
       </c>
       <c r="AE97" t="s">
         <v>18</v>
@@ -31414,7 +31414,7 @@
         <v>414</v>
       </c>
       <c r="I98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J98">
         <f>Dimmkurven!F99</f>
@@ -31428,7 +31428,7 @@
       </c>
       <c r="V98" t="str">
         <f t="shared" si="6"/>
-        <v>{1552, 282, 108, 414,24},</v>
+        <v>{1552, 282, 108, 414, 24},</v>
       </c>
       <c r="AE98" t="s">
         <v>18</v>
@@ -31527,7 +31527,7 @@
         <v>423</v>
       </c>
       <c r="I99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J99">
         <f>Dimmkurven!F100</f>
@@ -31541,7 +31541,7 @@
       </c>
       <c r="V99" t="str">
         <f t="shared" si="6"/>
-        <v>{1568, 290, 112, 423,24},</v>
+        <v>{1568, 290, 112, 423, 24},</v>
       </c>
       <c r="AE99" t="s">
         <v>18</v>
@@ -31640,7 +31640,7 @@
         <v>432</v>
       </c>
       <c r="I100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J100">
         <f>Dimmkurven!F101</f>
@@ -31654,7 +31654,7 @@
       </c>
       <c r="V100" t="str">
         <f t="shared" si="6"/>
-        <v>{1584, 298, 117, 432,25},</v>
+        <v>{1584, 298, 117, 432, 25},</v>
       </c>
       <c r="AE100" t="s">
         <v>18</v>
@@ -31753,7 +31753,7 @@
         <v>442</v>
       </c>
       <c r="I101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J101">
         <f>Dimmkurven!F102</f>
@@ -31767,7 +31767,7 @@
       </c>
       <c r="V101" t="str">
         <f t="shared" si="6"/>
-        <v>{1600, 306, 121, 442,26},</v>
+        <v>{1600, 306, 121, 442, 26},</v>
       </c>
       <c r="AE101" t="s">
         <v>18</v>
@@ -31866,7 +31866,7 @@
         <v>451</v>
       </c>
       <c r="I102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J102">
         <f>Dimmkurven!F103</f>
@@ -31880,7 +31880,7 @@
       </c>
       <c r="V102" t="str">
         <f t="shared" si="6"/>
-        <v>{1616, 315, 126, 451,27},</v>
+        <v>{1616, 315, 126, 451, 27},</v>
       </c>
       <c r="AE102" t="s">
         <v>18</v>
@@ -31951,7 +31951,7 @@
         <v>461</v>
       </c>
       <c r="I103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J103">
         <f>Dimmkurven!F104</f>
@@ -31965,7 +31965,7 @@
       </c>
       <c r="V103" t="str">
         <f t="shared" si="6"/>
-        <v>{1632, 324, 131, 461,28},</v>
+        <v>{1632, 324, 131, 461, 28},</v>
       </c>
       <c r="AE103" t="s">
         <v>18</v>
@@ -32036,7 +32036,7 @@
         <v>471</v>
       </c>
       <c r="I104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J104">
         <f>Dimmkurven!F105</f>
@@ -32050,7 +32050,7 @@
       </c>
       <c r="V104" t="str">
         <f t="shared" si="6"/>
-        <v>{1648, 332, 136, 471,29},</v>
+        <v>{1648, 332, 136, 471, 29},</v>
       </c>
       <c r="AE104" t="s">
         <v>18</v>
@@ -32121,7 +32121,7 @@
         <v>480</v>
       </c>
       <c r="I105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J105">
         <f>Dimmkurven!F106</f>
@@ -32135,7 +32135,7 @@
       </c>
       <c r="V105" t="str">
         <f t="shared" si="6"/>
-        <v>{1664, 341, 141, 480,30},</v>
+        <v>{1664, 341, 141, 480, 30},</v>
       </c>
       <c r="AE105" t="s">
         <v>18</v>
@@ -32206,7 +32206,7 @@
         <v>490</v>
       </c>
       <c r="I106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J106">
         <f>Dimmkurven!F107</f>
@@ -32220,7 +32220,7 @@
       </c>
       <c r="V106" t="str">
         <f t="shared" si="6"/>
-        <v>{1680, 351, 146, 490,31},</v>
+        <v>{1680, 351, 146, 490, 31},</v>
       </c>
       <c r="AE106" t="s">
         <v>18</v>
@@ -32291,7 +32291,7 @@
         <v>501</v>
       </c>
       <c r="I107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J107">
         <f>Dimmkurven!F108</f>
@@ -32305,7 +32305,7 @@
       </c>
       <c r="V107" t="str">
         <f t="shared" si="6"/>
-        <v>{1696, 360, 151, 501,32},</v>
+        <v>{1696, 360, 151, 501, 32},</v>
       </c>
       <c r="AE107" t="s">
         <v>18</v>
@@ -32376,7 +32376,7 @@
         <v>511</v>
       </c>
       <c r="I108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J108">
         <f>Dimmkurven!F109</f>
@@ -32390,7 +32390,7 @@
       </c>
       <c r="V108" t="str">
         <f t="shared" si="6"/>
-        <v>{1712, 370, 156, 511,33},</v>
+        <v>{1712, 370, 156, 511, 33},</v>
       </c>
       <c r="AE108" t="s">
         <v>18</v>
@@ -32461,7 +32461,7 @@
         <v>521</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J109">
         <f>Dimmkurven!F110</f>
@@ -32475,7 +32475,7 @@
       </c>
       <c r="V109" t="str">
         <f t="shared" si="6"/>
-        <v>{1728, 379, 162, 521,34},</v>
+        <v>{1728, 379, 162, 521, 34},</v>
       </c>
       <c r="AE109" t="s">
         <v>18</v>
@@ -32546,7 +32546,7 @@
         <v>532</v>
       </c>
       <c r="I110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J110">
         <f>Dimmkurven!F111</f>
@@ -32560,7 +32560,7 @@
       </c>
       <c r="V110" t="str">
         <f t="shared" si="6"/>
-        <v>{1744, 389, 168, 532,35},</v>
+        <v>{1744, 389, 168, 532, 35},</v>
       </c>
       <c r="AE110" t="s">
         <v>18</v>
@@ -32631,7 +32631,7 @@
         <v>543</v>
       </c>
       <c r="I111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J111">
         <f>Dimmkurven!F112</f>
@@ -32645,7 +32645,7 @@
       </c>
       <c r="V111" t="str">
         <f t="shared" si="6"/>
-        <v>{1760, 399, 174, 543,36},</v>
+        <v>{1760, 399, 174, 543, 36},</v>
       </c>
       <c r="AE111" t="s">
         <v>18</v>
@@ -32716,7 +32716,7 @@
         <v>554</v>
       </c>
       <c r="I112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J112">
         <f>Dimmkurven!F113</f>
@@ -32730,7 +32730,7 @@
       </c>
       <c r="V112" t="str">
         <f t="shared" si="6"/>
-        <v>{1776, 409, 180, 554,37},</v>
+        <v>{1776, 409, 180, 554, 37},</v>
       </c>
       <c r="AE112" t="s">
         <v>18</v>
@@ -32801,7 +32801,7 @@
         <v>565</v>
       </c>
       <c r="I113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J113">
         <f>Dimmkurven!F114</f>
@@ -32815,7 +32815,7 @@
       </c>
       <c r="V113" t="str">
         <f t="shared" si="6"/>
-        <v>{1792, 419, 186, 565,39},</v>
+        <v>{1792, 419, 186, 565, 39},</v>
       </c>
       <c r="AE113" t="s">
         <v>18</v>
@@ -32886,7 +32886,7 @@
         <v>576</v>
       </c>
       <c r="I114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J114">
         <f>Dimmkurven!F115</f>
@@ -32900,7 +32900,7 @@
       </c>
       <c r="V114" t="str">
         <f t="shared" si="6"/>
-        <v>{1808, 430, 192, 576,40},</v>
+        <v>{1808, 430, 192, 576, 40},</v>
       </c>
       <c r="AE114" t="s">
         <v>18</v>
@@ -32971,7 +32971,7 @@
         <v>587</v>
       </c>
       <c r="I115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J115">
         <f>Dimmkurven!F116</f>
@@ -32985,7 +32985,7 @@
       </c>
       <c r="V115" t="str">
         <f t="shared" si="6"/>
-        <v>{1824, 441, 199, 587,41},</v>
+        <v>{1824, 441, 199, 587, 41},</v>
       </c>
       <c r="AE115" t="s">
         <v>18</v>
@@ -33056,7 +33056,7 @@
         <v>599</v>
       </c>
       <c r="I116" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J116">
         <f>Dimmkurven!F117</f>
@@ -33070,7 +33070,7 @@
       </c>
       <c r="V116" t="str">
         <f t="shared" si="6"/>
-        <v>{1840, 451, 205, 599,43},</v>
+        <v>{1840, 451, 205, 599, 43},</v>
       </c>
       <c r="AE116" t="s">
         <v>18</v>
@@ -33141,7 +33141,7 @@
         <v>610</v>
       </c>
       <c r="I117" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J117">
         <f>Dimmkurven!F118</f>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="V117" t="str">
         <f t="shared" si="6"/>
-        <v>{1856, 462, 212, 610,44},</v>
+        <v>{1856, 462, 212, 610, 44},</v>
       </c>
       <c r="AE117" t="s">
         <v>18</v>
@@ -33226,7 +33226,7 @@
         <v>622</v>
       </c>
       <c r="I118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J118">
         <f>Dimmkurven!F119</f>
@@ -33240,7 +33240,7 @@
       </c>
       <c r="V118" t="str">
         <f t="shared" si="6"/>
-        <v>{1872, 473, 219, 622,45},</v>
+        <v>{1872, 473, 219, 622, 45},</v>
       </c>
       <c r="AE118" t="s">
         <v>18</v>
@@ -33311,7 +33311,7 @@
         <v>634</v>
       </c>
       <c r="I119" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J119">
         <f>Dimmkurven!F120</f>
@@ -33325,7 +33325,7 @@
       </c>
       <c r="V119" t="str">
         <f t="shared" si="6"/>
-        <v>{1888, 485, 226, 634,47},</v>
+        <v>{1888, 485, 226, 634, 47},</v>
       </c>
       <c r="AE119" t="s">
         <v>18</v>
@@ -33396,7 +33396,7 @@
         <v>646</v>
       </c>
       <c r="I120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J120">
         <f>Dimmkurven!F121</f>
@@ -33410,7 +33410,7 @@
       </c>
       <c r="V120" t="str">
         <f t="shared" si="6"/>
-        <v>{1904, 496, 234, 646,48},</v>
+        <v>{1904, 496, 234, 646, 48},</v>
       </c>
       <c r="AE120" t="s">
         <v>18</v>
@@ -33481,7 +33481,7 @@
         <v>658</v>
       </c>
       <c r="I121" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J121">
         <f>Dimmkurven!F122</f>
@@ -33495,7 +33495,7 @@
       </c>
       <c r="V121" t="str">
         <f t="shared" si="6"/>
-        <v>{1920, 508, 241, 658,50},</v>
+        <v>{1920, 508, 241, 658, 50},</v>
       </c>
       <c r="AE121" t="s">
         <v>18</v>
@@ -33566,7 +33566,7 @@
         <v>670</v>
       </c>
       <c r="I122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J122">
         <f>Dimmkurven!F123</f>
@@ -33580,7 +33580,7 @@
       </c>
       <c r="V122" t="str">
         <f t="shared" si="6"/>
-        <v>{1936, 520, 249, 670,52},</v>
+        <v>{1936, 520, 249, 670, 52},</v>
       </c>
       <c r="AE122" t="s">
         <v>18</v>
@@ -33651,7 +33651,7 @@
         <v>683</v>
       </c>
       <c r="I123" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J123">
         <f>Dimmkurven!F124</f>
@@ -33665,7 +33665,7 @@
       </c>
       <c r="V123" t="str">
         <f t="shared" si="6"/>
-        <v>{1952, 532, 256, 683,53},</v>
+        <v>{1952, 532, 256, 683, 53},</v>
       </c>
       <c r="AE123" t="s">
         <v>18</v>
@@ -33736,7 +33736,7 @@
         <v>696</v>
       </c>
       <c r="I124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J124">
         <f>Dimmkurven!F125</f>
@@ -33750,7 +33750,7 @@
       </c>
       <c r="V124" t="str">
         <f t="shared" si="6"/>
-        <v>{1968, 544, 264, 696,55},</v>
+        <v>{1968, 544, 264, 696, 55},</v>
       </c>
       <c r="AE124" t="s">
         <v>18</v>
@@ -33821,7 +33821,7 @@
         <v>708</v>
       </c>
       <c r="I125" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J125">
         <f>Dimmkurven!F126</f>
@@ -33835,7 +33835,7 @@
       </c>
       <c r="V125" t="str">
         <f t="shared" si="6"/>
-        <v>{1984, 556, 273, 708,57},</v>
+        <v>{1984, 556, 273, 708, 57},</v>
       </c>
       <c r="AE125" t="s">
         <v>18</v>
@@ -33906,7 +33906,7 @@
         <v>721</v>
       </c>
       <c r="I126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J126">
         <f>Dimmkurven!F127</f>
@@ -33920,7 +33920,7 @@
       </c>
       <c r="V126" t="str">
         <f t="shared" si="6"/>
-        <v>{2000, 569, 281, 721,59},</v>
+        <v>{2000, 569, 281, 721, 59},</v>
       </c>
       <c r="AE126" t="s">
         <v>18</v>
@@ -33991,7 +33991,7 @@
         <v>734</v>
       </c>
       <c r="I127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J127">
         <f>Dimmkurven!F128</f>
@@ -34005,7 +34005,7 @@
       </c>
       <c r="V127" t="str">
         <f t="shared" si="6"/>
-        <v>{2016, 582, 290, 734,61},</v>
+        <v>{2016, 582, 290, 734, 61},</v>
       </c>
       <c r="AE127" t="s">
         <v>18</v>
@@ -34076,7 +34076,7 @@
         <v>748</v>
       </c>
       <c r="I128" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J128">
         <f>Dimmkurven!F129</f>
@@ -34090,7 +34090,7 @@
       </c>
       <c r="V128" t="str">
         <f t="shared" si="6"/>
-        <v>{2032, 595, 298, 748,63},</v>
+        <v>{2032, 595, 298, 748, 63},</v>
       </c>
       <c r="AE128" t="s">
         <v>18</v>
@@ -34161,7 +34161,7 @@
         <v>761</v>
       </c>
       <c r="I129" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J129">
         <f>Dimmkurven!F130</f>
@@ -34175,7 +34175,7 @@
       </c>
       <c r="V129" t="str">
         <f t="shared" si="6"/>
-        <v>{2048, 608, 307, 761,65},</v>
+        <v>{2048, 608, 307, 761, 65},</v>
       </c>
       <c r="AE129" t="s">
         <v>18</v>
@@ -34246,7 +34246,7 @@
         <v>775</v>
       </c>
       <c r="I130" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J130">
         <f>Dimmkurven!F131</f>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="V130" t="str">
         <f t="shared" ref="V130:V193" si="12">CONCATENATE(A130,B130,C130,D130,E130,F130,G130,H130,I130,J130,K130,L130)</f>
-        <v>{2064, 621, 317, 775,67},</v>
+        <v>{2064, 621, 317, 775, 67},</v>
       </c>
       <c r="AE130" t="s">
         <v>18</v>
@@ -34331,7 +34331,7 @@
         <v>789</v>
       </c>
       <c r="I131" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J131">
         <f>Dimmkurven!F132</f>
@@ -34345,7 +34345,7 @@
       </c>
       <c r="V131" t="str">
         <f t="shared" si="12"/>
-        <v>{2080, 634, 326, 789,69},</v>
+        <v>{2080, 634, 326, 789, 69},</v>
       </c>
       <c r="AE131" t="s">
         <v>18</v>
@@ -34416,7 +34416,7 @@
         <v>802</v>
       </c>
       <c r="I132" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J132">
         <f>Dimmkurven!F133</f>
@@ -34430,7 +34430,7 @@
       </c>
       <c r="V132" t="str">
         <f t="shared" si="12"/>
-        <v>{2096, 648, 335, 802,72},</v>
+        <v>{2096, 648, 335, 802, 72},</v>
       </c>
       <c r="AE132" t="s">
         <v>18</v>
@@ -34501,7 +34501,7 @@
         <v>817</v>
       </c>
       <c r="I133" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J133">
         <f>Dimmkurven!F134</f>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="V133" t="str">
         <f t="shared" si="12"/>
-        <v>{2112, 662, 345, 817,74},</v>
+        <v>{2112, 662, 345, 817, 74},</v>
       </c>
       <c r="AE133" t="s">
         <v>18</v>
@@ -34586,7 +34586,7 @@
         <v>831</v>
       </c>
       <c r="I134" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J134">
         <f>Dimmkurven!F135</f>
@@ -34600,7 +34600,7 @@
       </c>
       <c r="V134" t="str">
         <f t="shared" si="12"/>
-        <v>{2128, 676, 355, 831,77},</v>
+        <v>{2128, 676, 355, 831, 77},</v>
       </c>
       <c r="AE134" t="s">
         <v>18</v>
@@ -34671,7 +34671,7 @@
         <v>845</v>
       </c>
       <c r="I135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J135">
         <f>Dimmkurven!F136</f>
@@ -34685,7 +34685,7 @@
       </c>
       <c r="V135" t="str">
         <f t="shared" si="12"/>
-        <v>{2144, 690, 365, 845,79},</v>
+        <v>{2144, 690, 365, 845, 79},</v>
       </c>
       <c r="AE135" t="s">
         <v>18</v>
@@ -34756,7 +34756,7 @@
         <v>860</v>
       </c>
       <c r="I136" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J136">
         <f>Dimmkurven!F137</f>
@@ -34770,7 +34770,7 @@
       </c>
       <c r="V136" t="str">
         <f t="shared" si="12"/>
-        <v>{2160, 705, 376, 860,82},</v>
+        <v>{2160, 705, 376, 860, 82},</v>
       </c>
       <c r="AE136" t="s">
         <v>18</v>
@@ -34841,7 +34841,7 @@
         <v>875</v>
       </c>
       <c r="I137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J137">
         <f>Dimmkurven!F138</f>
@@ -34855,7 +34855,7 @@
       </c>
       <c r="V137" t="str">
         <f t="shared" si="12"/>
-        <v>{2176, 719, 386, 875,84},</v>
+        <v>{2176, 719, 386, 875, 84},</v>
       </c>
       <c r="AE137" t="s">
         <v>18</v>
@@ -34926,7 +34926,7 @@
         <v>890</v>
       </c>
       <c r="I138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J138">
         <f>Dimmkurven!F139</f>
@@ -34940,7 +34940,7 @@
       </c>
       <c r="V138" t="str">
         <f t="shared" si="12"/>
-        <v>{2192, 734, 397, 890,87},</v>
+        <v>{2192, 734, 397, 890, 87},</v>
       </c>
       <c r="AE138" t="s">
         <v>18</v>
@@ -35011,7 +35011,7 @@
         <v>905</v>
       </c>
       <c r="I139" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J139">
         <f>Dimmkurven!F140</f>
@@ -35025,7 +35025,7 @@
       </c>
       <c r="V139" t="str">
         <f t="shared" si="12"/>
-        <v>{2208, 749, 408, 905,90},</v>
+        <v>{2208, 749, 408, 905, 90},</v>
       </c>
       <c r="AE139" t="s">
         <v>18</v>
@@ -35096,7 +35096,7 @@
         <v>920</v>
       </c>
       <c r="I140" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J140">
         <f>Dimmkurven!F141</f>
@@ -35110,7 +35110,7 @@
       </c>
       <c r="V140" t="str">
         <f t="shared" si="12"/>
-        <v>{2224, 764, 419, 920,93},</v>
+        <v>{2224, 764, 419, 920, 93},</v>
       </c>
       <c r="AE140" t="s">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         <v>935</v>
       </c>
       <c r="I141" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J141">
         <f>Dimmkurven!F142</f>
@@ -35195,7 +35195,7 @@
       </c>
       <c r="V141" t="str">
         <f t="shared" si="12"/>
-        <v>{2240, 780, 431, 935,96},</v>
+        <v>{2240, 780, 431, 935, 96},</v>
       </c>
       <c r="AE141" t="s">
         <v>18</v>
@@ -35266,7 +35266,7 @@
         <v>951</v>
       </c>
       <c r="I142" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J142">
         <f>Dimmkurven!F143</f>
@@ -35280,7 +35280,7 @@
       </c>
       <c r="V142" t="str">
         <f t="shared" si="12"/>
-        <v>{2256, 795, 443, 951,99},</v>
+        <v>{2256, 795, 443, 951, 99},</v>
       </c>
       <c r="AE142" t="s">
         <v>18</v>
@@ -35351,7 +35351,7 @@
         <v>967</v>
       </c>
       <c r="I143" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J143">
         <f>Dimmkurven!F144</f>
@@ -35365,7 +35365,7 @@
       </c>
       <c r="V143" t="str">
         <f t="shared" si="12"/>
-        <v>{2272, 811, 455, 967,103},</v>
+        <v>{2272, 811, 455, 967, 103},</v>
       </c>
       <c r="AE143" t="s">
         <v>18</v>
@@ -35436,7 +35436,7 @@
         <v>983</v>
       </c>
       <c r="I144" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J144">
         <f>Dimmkurven!F145</f>
@@ -35450,7 +35450,7 @@
       </c>
       <c r="V144" t="str">
         <f t="shared" si="12"/>
-        <v>{2288, 827, 467, 983,106},</v>
+        <v>{2288, 827, 467, 983, 106},</v>
       </c>
       <c r="AE144" t="s">
         <v>18</v>
@@ -35521,7 +35521,7 @@
         <v>999</v>
       </c>
       <c r="I145" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J145">
         <f>Dimmkurven!F146</f>
@@ -35535,7 +35535,7 @@
       </c>
       <c r="V145" t="str">
         <f t="shared" si="12"/>
-        <v>{2304, 843, 479, 999,110},</v>
+        <v>{2304, 843, 479, 999, 110},</v>
       </c>
       <c r="AE145" t="s">
         <v>18</v>
@@ -35606,7 +35606,7 @@
         <v>1015</v>
       </c>
       <c r="I146" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J146">
         <f>Dimmkurven!F147</f>
@@ -35620,7 +35620,7 @@
       </c>
       <c r="V146" t="str">
         <f t="shared" si="12"/>
-        <v>{2320, 859, 492, 1015,113},</v>
+        <v>{2320, 859, 492, 1015, 113},</v>
       </c>
       <c r="AE146" t="s">
         <v>18</v>
@@ -35691,7 +35691,7 @@
         <v>1032</v>
       </c>
       <c r="I147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J147">
         <f>Dimmkurven!F148</f>
@@ -35705,7 +35705,7 @@
       </c>
       <c r="V147" t="str">
         <f t="shared" si="12"/>
-        <v>{2336, 876, 505, 1032,117},</v>
+        <v>{2336, 876, 505, 1032, 117},</v>
       </c>
       <c r="AE147" t="s">
         <v>18</v>
@@ -35776,7 +35776,7 @@
         <v>1048</v>
       </c>
       <c r="I148" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J148">
         <f>Dimmkurven!F149</f>
@@ -35790,7 +35790,7 @@
       </c>
       <c r="V148" t="str">
         <f t="shared" si="12"/>
-        <v>{2352, 893, 518, 1048,121},</v>
+        <v>{2352, 893, 518, 1048, 121},</v>
       </c>
       <c r="AE148" t="s">
         <v>18</v>
@@ -35861,7 +35861,7 @@
         <v>1065</v>
       </c>
       <c r="I149" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J149">
         <f>Dimmkurven!F150</f>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="V149" t="str">
         <f t="shared" si="12"/>
-        <v>{2368, 910, 532, 1065,125},</v>
+        <v>{2368, 910, 532, 1065, 125},</v>
       </c>
       <c r="AE149" t="s">
         <v>18</v>
@@ -35946,7 +35946,7 @@
         <v>1082</v>
       </c>
       <c r="I150" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J150">
         <f>Dimmkurven!F151</f>
@@ -35960,7 +35960,7 @@
       </c>
       <c r="V150" t="str">
         <f t="shared" si="12"/>
-        <v>{2384, 927, 545, 1082,129},</v>
+        <v>{2384, 927, 545, 1082, 129},</v>
       </c>
       <c r="AE150" t="s">
         <v>18</v>
@@ -36031,7 +36031,7 @@
         <v>1099</v>
       </c>
       <c r="I151" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J151">
         <f>Dimmkurven!F152</f>
@@ -36045,7 +36045,7 @@
       </c>
       <c r="V151" t="str">
         <f t="shared" si="12"/>
-        <v>{2400, 944, 559, 1099,133},</v>
+        <v>{2400, 944, 559, 1099, 133},</v>
       </c>
       <c r="AE151" t="s">
         <v>18</v>
@@ -36116,7 +36116,7 @@
         <v>1117</v>
       </c>
       <c r="I152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J152">
         <f>Dimmkurven!F153</f>
@@ -36130,7 +36130,7 @@
       </c>
       <c r="V152" t="str">
         <f t="shared" si="12"/>
-        <v>{2416, 962, 573, 1117,138},</v>
+        <v>{2416, 962, 573, 1117, 138},</v>
       </c>
       <c r="AE152" t="s">
         <v>18</v>
@@ -36201,7 +36201,7 @@
         <v>1134</v>
       </c>
       <c r="I153" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J153">
         <f>Dimmkurven!F154</f>
@@ -36215,7 +36215,7 @@
       </c>
       <c r="V153" t="str">
         <f t="shared" si="12"/>
-        <v>{2432, 980, 588, 1134,142},</v>
+        <v>{2432, 980, 588, 1134, 142},</v>
       </c>
       <c r="AE153" t="s">
         <v>18</v>
@@ -36286,7 +36286,7 @@
         <v>1152</v>
       </c>
       <c r="I154" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J154">
         <f>Dimmkurven!F155</f>
@@ -36300,7 +36300,7 @@
       </c>
       <c r="V154" t="str">
         <f t="shared" si="12"/>
-        <v>{2448, 998, 603, 1152,147},</v>
+        <v>{2448, 998, 603, 1152, 147},</v>
       </c>
       <c r="AE154" t="s">
         <v>18</v>
@@ -36371,7 +36371,7 @@
         <v>1170</v>
       </c>
       <c r="I155" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J155">
         <f>Dimmkurven!F156</f>
@@ -36385,7 +36385,7 @@
       </c>
       <c r="V155" t="str">
         <f t="shared" si="12"/>
-        <v>{2464, 1016, 618, 1170,152},</v>
+        <v>{2464, 1016, 618, 1170, 152},</v>
       </c>
       <c r="AE155" t="s">
         <v>18</v>
@@ -36456,7 +36456,7 @@
         <v>1188</v>
       </c>
       <c r="I156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J156">
         <f>Dimmkurven!F157</f>
@@ -36470,7 +36470,7 @@
       </c>
       <c r="V156" t="str">
         <f t="shared" si="12"/>
-        <v>{2480, 1035, 633, 1188,157},</v>
+        <v>{2480, 1035, 633, 1188, 157},</v>
       </c>
       <c r="AE156" t="s">
         <v>18</v>
@@ -36541,7 +36541,7 @@
         <v>1206</v>
       </c>
       <c r="I157" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J157">
         <f>Dimmkurven!F158</f>
@@ -36555,7 +36555,7 @@
       </c>
       <c r="V157" t="str">
         <f t="shared" si="12"/>
-        <v>{2496, 1053, 648, 1206,162},</v>
+        <v>{2496, 1053, 648, 1206, 162},</v>
       </c>
       <c r="AE157" t="s">
         <v>18</v>
@@ -36626,7 +36626,7 @@
         <v>1225</v>
       </c>
       <c r="I158" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J158">
         <f>Dimmkurven!F159</f>
@@ -36640,7 +36640,7 @@
       </c>
       <c r="V158" t="str">
         <f t="shared" si="12"/>
-        <v>{2512, 1072, 664, 1225,168},</v>
+        <v>{2512, 1072, 664, 1225, 168},</v>
       </c>
       <c r="AE158" t="s">
         <v>18</v>
@@ -36711,7 +36711,7 @@
         <v>1243</v>
       </c>
       <c r="I159" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J159">
         <f>Dimmkurven!F160</f>
@@ -36725,7 +36725,7 @@
       </c>
       <c r="V159" t="str">
         <f t="shared" si="12"/>
-        <v>{2528, 1091, 680, 1243,173},</v>
+        <v>{2528, 1091, 680, 1243, 173},</v>
       </c>
       <c r="AE159" t="s">
         <v>18</v>
@@ -36796,7 +36796,7 @@
         <v>1262</v>
       </c>
       <c r="I160" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J160">
         <f>Dimmkurven!F161</f>
@@ -36810,7 +36810,7 @@
       </c>
       <c r="V160" t="str">
         <f t="shared" si="12"/>
-        <v>{2544, 1111, 697, 1262,179},</v>
+        <v>{2544, 1111, 697, 1262, 179},</v>
       </c>
       <c r="AE160" t="s">
         <v>18</v>
@@ -36881,7 +36881,7 @@
         <v>1281</v>
       </c>
       <c r="I161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J161">
         <f>Dimmkurven!F162</f>
@@ -36895,7 +36895,7 @@
       </c>
       <c r="V161" t="str">
         <f t="shared" si="12"/>
-        <v>{2560, 1130, 713, 1281,185},</v>
+        <v>{2560, 1130, 713, 1281, 185},</v>
       </c>
       <c r="AE161" t="s">
         <v>18</v>
@@ -36966,7 +36966,7 @@
         <v>1301</v>
       </c>
       <c r="I162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J162">
         <f>Dimmkurven!F163</f>
@@ -36980,7 +36980,7 @@
       </c>
       <c r="V162" t="str">
         <f t="shared" si="12"/>
-        <v>{2576, 1150, 730, 1301,191},</v>
+        <v>{2576, 1150, 730, 1301, 191},</v>
       </c>
       <c r="AE162" t="s">
         <v>18</v>
@@ -37051,7 +37051,7 @@
         <v>1320</v>
       </c>
       <c r="I163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J163">
         <f>Dimmkurven!F164</f>
@@ -37065,7 +37065,7 @@
       </c>
       <c r="V163" t="str">
         <f t="shared" si="12"/>
-        <v>{2592, 1170, 748, 1320,197},</v>
+        <v>{2592, 1170, 748, 1320, 197},</v>
       </c>
       <c r="AE163" t="s">
         <v>18</v>
@@ -37136,7 +37136,7 @@
         <v>1340</v>
       </c>
       <c r="I164" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J164">
         <f>Dimmkurven!F165</f>
@@ -37150,7 +37150,7 @@
       </c>
       <c r="V164" t="str">
         <f t="shared" si="12"/>
-        <v>{2608, 1190, 765, 1340,204},</v>
+        <v>{2608, 1190, 765, 1340, 204},</v>
       </c>
       <c r="AE164" t="s">
         <v>18</v>
@@ -37221,7 +37221,7 @@
         <v>1359</v>
       </c>
       <c r="I165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J165">
         <f>Dimmkurven!F166</f>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="V165" t="str">
         <f t="shared" si="12"/>
-        <v>{2624, 1211, 783, 1359,210},</v>
+        <v>{2624, 1211, 783, 1359, 210},</v>
       </c>
       <c r="AE165" t="s">
         <v>18</v>
@@ -37306,7 +37306,7 @@
         <v>1379</v>
       </c>
       <c r="I166" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J166">
         <f>Dimmkurven!F167</f>
@@ -37320,7 +37320,7 @@
       </c>
       <c r="V166" t="str">
         <f t="shared" si="12"/>
-        <v>{2640, 1231, 801, 1379,217},</v>
+        <v>{2640, 1231, 801, 1379, 217},</v>
       </c>
       <c r="AE166" t="s">
         <v>18</v>
@@ -37391,7 +37391,7 @@
         <v>1400</v>
       </c>
       <c r="I167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J167">
         <f>Dimmkurven!F168</f>
@@ -37405,7 +37405,7 @@
       </c>
       <c r="V167" t="str">
         <f t="shared" si="12"/>
-        <v>{2656, 1252, 820, 1400,225},</v>
+        <v>{2656, 1252, 820, 1400, 225},</v>
       </c>
       <c r="AE167" t="s">
         <v>18</v>
@@ -37476,7 +37476,7 @@
         <v>1420</v>
       </c>
       <c r="I168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J168">
         <f>Dimmkurven!F169</f>
@@ -37490,7 +37490,7 @@
       </c>
       <c r="V168" t="str">
         <f t="shared" si="12"/>
-        <v>{2672, 1273, 839, 1420,232},</v>
+        <v>{2672, 1273, 839, 1420, 232},</v>
       </c>
       <c r="AE168" t="s">
         <v>18</v>
@@ -37561,7 +37561,7 @@
         <v>1441</v>
       </c>
       <c r="I169" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J169">
         <f>Dimmkurven!F170</f>
@@ -37575,7 +37575,7 @@
       </c>
       <c r="V169" t="str">
         <f t="shared" si="12"/>
-        <v>{2688, 1295, 858, 1441,240},</v>
+        <v>{2688, 1295, 858, 1441, 240},</v>
       </c>
       <c r="AE169" t="s">
         <v>18</v>
@@ -37646,7 +37646,7 @@
         <v>1461</v>
       </c>
       <c r="I170" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J170">
         <f>Dimmkurven!F171</f>
@@ -37660,7 +37660,7 @@
       </c>
       <c r="V170" t="str">
         <f t="shared" si="12"/>
-        <v>{2704, 1316, 877, 1461,248},</v>
+        <v>{2704, 1316, 877, 1461, 248},</v>
       </c>
       <c r="AE170" t="s">
         <v>18</v>
@@ -37731,7 +37731,7 @@
         <v>1482</v>
       </c>
       <c r="I171" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J171">
         <f>Dimmkurven!F172</f>
@@ -37745,7 +37745,7 @@
       </c>
       <c r="V171" t="str">
         <f t="shared" si="12"/>
-        <v>{2720, 1338, 897, 1482,256},</v>
+        <v>{2720, 1338, 897, 1482, 256},</v>
       </c>
       <c r="AE171" t="s">
         <v>18</v>
@@ -37816,7 +37816,7 @@
         <v>1504</v>
       </c>
       <c r="I172" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J172">
         <f>Dimmkurven!F173</f>
@@ -37830,7 +37830,7 @@
       </c>
       <c r="V172" t="str">
         <f t="shared" si="12"/>
-        <v>{2736, 1360, 917, 1504,264},</v>
+        <v>{2736, 1360, 917, 1504, 264},</v>
       </c>
       <c r="AE172" t="s">
         <v>18</v>
@@ -37901,7 +37901,7 @@
         <v>1525</v>
       </c>
       <c r="I173" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J173">
         <f>Dimmkurven!F174</f>
@@ -37915,7 +37915,7 @@
       </c>
       <c r="V173" t="str">
         <f t="shared" si="12"/>
-        <v>{2752, 1382, 938, 1525,273},</v>
+        <v>{2752, 1382, 938, 1525, 273},</v>
       </c>
       <c r="AE173" t="s">
         <v>18</v>
@@ -37986,7 +37986,7 @@
         <v>1547</v>
       </c>
       <c r="I174" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J174">
         <f>Dimmkurven!F175</f>
@@ -38000,7 +38000,7 @@
       </c>
       <c r="V174" t="str">
         <f t="shared" si="12"/>
-        <v>{2768, 1405, 958, 1547,282},</v>
+        <v>{2768, 1405, 958, 1547, 282},</v>
       </c>
       <c r="AE174" t="s">
         <v>18</v>
@@ -38071,7 +38071,7 @@
         <v>1568</v>
       </c>
       <c r="I175" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J175">
         <f>Dimmkurven!F176</f>
@@ -38085,7 +38085,7 @@
       </c>
       <c r="V175" t="str">
         <f t="shared" si="12"/>
-        <v>{2784, 1427, 979, 1568,292},</v>
+        <v>{2784, 1427, 979, 1568, 292},</v>
       </c>
       <c r="AE175" t="s">
         <v>18</v>
@@ -38156,7 +38156,7 @@
         <v>1590</v>
       </c>
       <c r="I176" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J176">
         <f>Dimmkurven!F177</f>
@@ -38170,7 +38170,7 @@
       </c>
       <c r="V176" t="str">
         <f t="shared" si="12"/>
-        <v>{2800, 1450, 1001, 1590,301},</v>
+        <v>{2800, 1450, 1001, 1590, 301},</v>
       </c>
       <c r="AE176" t="s">
         <v>18</v>
@@ -38241,7 +38241,7 @@
         <v>1613</v>
       </c>
       <c r="I177" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J177">
         <f>Dimmkurven!F178</f>
@@ -38255,7 +38255,7 @@
       </c>
       <c r="V177" t="str">
         <f t="shared" si="12"/>
-        <v>{2816, 1474, 1023, 1613,311},</v>
+        <v>{2816, 1474, 1023, 1613, 311},</v>
       </c>
       <c r="AE177" t="s">
         <v>18</v>
@@ -38326,7 +38326,7 @@
         <v>1635</v>
       </c>
       <c r="I178" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J178">
         <f>Dimmkurven!F179</f>
@@ -38340,7 +38340,7 @@
       </c>
       <c r="V178" t="str">
         <f t="shared" si="12"/>
-        <v>{2832, 1497, 1045, 1635,322},</v>
+        <v>{2832, 1497, 1045, 1635, 322},</v>
       </c>
       <c r="AE178" t="s">
         <v>18</v>
@@ -38411,7 +38411,7 @@
         <v>1658</v>
       </c>
       <c r="I179" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J179">
         <f>Dimmkurven!F180</f>
@@ -38425,7 +38425,7 @@
       </c>
       <c r="V179" t="str">
         <f t="shared" si="12"/>
-        <v>{2848, 1521, 1067, 1658,332},</v>
+        <v>{2848, 1521, 1067, 1658, 332},</v>
       </c>
       <c r="AE179" t="s">
         <v>18</v>
@@ -38496,7 +38496,7 @@
         <v>1681</v>
       </c>
       <c r="I180" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J180">
         <f>Dimmkurven!F181</f>
@@ -38510,7 +38510,7 @@
       </c>
       <c r="V180" t="str">
         <f t="shared" si="12"/>
-        <v>{2864, 1545, 1090, 1681,343},</v>
+        <v>{2864, 1545, 1090, 1681, 343},</v>
       </c>
       <c r="AE180" t="s">
         <v>18</v>
@@ -38581,7 +38581,7 @@
         <v>1704</v>
       </c>
       <c r="I181" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J181">
         <f>Dimmkurven!F182</f>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="V181" t="str">
         <f t="shared" si="12"/>
-        <v>{2880, 1569, 1113, 1704,355},</v>
+        <v>{2880, 1569, 1113, 1704, 355},</v>
       </c>
       <c r="AE181" t="s">
         <v>18</v>
@@ -38666,7 +38666,7 @@
         <v>1727</v>
       </c>
       <c r="I182" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J182">
         <f>Dimmkurven!F183</f>
@@ -38680,7 +38680,7 @@
       </c>
       <c r="V182" t="str">
         <f t="shared" si="12"/>
-        <v>{2896, 1593, 1137, 1727,366},</v>
+        <v>{2896, 1593, 1137, 1727, 366},</v>
       </c>
       <c r="AE182" t="s">
         <v>18</v>
@@ -38751,7 +38751,7 @@
         <v>1750</v>
       </c>
       <c r="I183" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J183">
         <f>Dimmkurven!F184</f>
@@ -38765,7 +38765,7 @@
       </c>
       <c r="V183" t="str">
         <f t="shared" si="12"/>
-        <v>{2912, 1618, 1161, 1750,379},</v>
+        <v>{2912, 1618, 1161, 1750, 379},</v>
       </c>
       <c r="AE183" t="s">
         <v>18</v>
@@ -38836,7 +38836,7 @@
         <v>1774</v>
       </c>
       <c r="I184" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J184">
         <f>Dimmkurven!F185</f>
@@ -38850,7 +38850,7 @@
       </c>
       <c r="V184" t="str">
         <f t="shared" si="12"/>
-        <v>{2928, 1643, 1185, 1774,391},</v>
+        <v>{2928, 1643, 1185, 1774, 391},</v>
       </c>
       <c r="AE184" t="s">
         <v>18</v>
@@ -38921,7 +38921,7 @@
         <v>1798</v>
       </c>
       <c r="I185" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J185">
         <f>Dimmkurven!F186</f>
@@ -38935,7 +38935,7 @@
       </c>
       <c r="V185" t="str">
         <f t="shared" si="12"/>
-        <v>{2944, 1668, 1210, 1798,404},</v>
+        <v>{2944, 1668, 1210, 1798, 404},</v>
       </c>
       <c r="AE185" t="s">
         <v>18</v>
@@ -39006,7 +39006,7 @@
         <v>1822</v>
       </c>
       <c r="I186" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J186">
         <f>Dimmkurven!F187</f>
@@ -39020,7 +39020,7 @@
       </c>
       <c r="V186" t="str">
         <f t="shared" si="12"/>
-        <v>{2960, 1693, 1235, 1822,417},</v>
+        <v>{2960, 1693, 1235, 1822, 417},</v>
       </c>
       <c r="AE186" t="s">
         <v>18</v>
@@ -39091,7 +39091,7 @@
         <v>1846</v>
       </c>
       <c r="I187" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J187">
         <f>Dimmkurven!F188</f>
@@ -39105,7 +39105,7 @@
       </c>
       <c r="V187" t="str">
         <f t="shared" si="12"/>
-        <v>{2976, 1719, 1260, 1846,431},</v>
+        <v>{2976, 1719, 1260, 1846, 431},</v>
       </c>
       <c r="AE187" t="s">
         <v>18</v>
@@ -39176,7 +39176,7 @@
         <v>1871</v>
       </c>
       <c r="I188" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J188">
         <f>Dimmkurven!F189</f>
@@ -39190,7 +39190,7 @@
       </c>
       <c r="V188" t="str">
         <f t="shared" si="12"/>
-        <v>{2992, 1745, 1286, 1871,446},</v>
+        <v>{2992, 1745, 1286, 1871, 446},</v>
       </c>
       <c r="AE188" t="s">
         <v>18</v>
@@ -39261,7 +39261,7 @@
         <v>1896</v>
       </c>
       <c r="I189" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J189">
         <f>Dimmkurven!F190</f>
@@ -39275,7 +39275,7 @@
       </c>
       <c r="V189" t="str">
         <f t="shared" si="12"/>
-        <v>{3008, 1771, 1312, 1896,460},</v>
+        <v>{3008, 1771, 1312, 1896, 460},</v>
       </c>
       <c r="AE189" t="s">
         <v>18</v>
@@ -39346,7 +39346,7 @@
         <v>1921</v>
       </c>
       <c r="I190" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J190">
         <f>Dimmkurven!F191</f>
@@ -39360,7 +39360,7 @@
       </c>
       <c r="V190" t="str">
         <f t="shared" si="12"/>
-        <v>{3024, 1797, 1339, 1921,476},</v>
+        <v>{3024, 1797, 1339, 1921, 476},</v>
       </c>
       <c r="AE190" t="s">
         <v>18</v>
@@ -39431,7 +39431,7 @@
         <v>1946</v>
       </c>
       <c r="I191" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J191">
         <f>Dimmkurven!F192</f>
@@ -39445,7 +39445,7 @@
       </c>
       <c r="V191" t="str">
         <f t="shared" si="12"/>
-        <v>{3040, 1824, 1366, 1946,491},</v>
+        <v>{3040, 1824, 1366, 1946, 491},</v>
       </c>
       <c r="AE191" t="s">
         <v>18</v>
@@ -39516,7 +39516,7 @@
         <v>1971</v>
       </c>
       <c r="I192" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J192">
         <f>Dimmkurven!F193</f>
@@ -39530,7 +39530,7 @@
       </c>
       <c r="V192" t="str">
         <f t="shared" si="12"/>
-        <v>{3056, 1851, 1393, 1971,508},</v>
+        <v>{3056, 1851, 1393, 1971, 508},</v>
       </c>
       <c r="AE192" t="s">
         <v>18</v>
@@ -39601,7 +39601,7 @@
         <v>1997</v>
       </c>
       <c r="I193" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J193">
         <f>Dimmkurven!F194</f>
@@ -39615,7 +39615,7 @@
       </c>
       <c r="V193" t="str">
         <f t="shared" si="12"/>
-        <v>{3072, 1878, 1421, 1997,525},</v>
+        <v>{3072, 1878, 1421, 1997, 525},</v>
       </c>
       <c r="AE193" t="s">
         <v>18</v>
@@ -39686,7 +39686,7 @@
         <v>2023</v>
       </c>
       <c r="I194" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J194">
         <f>Dimmkurven!F195</f>
@@ -39700,7 +39700,7 @@
       </c>
       <c r="V194" t="str">
         <f t="shared" ref="V194:V255" si="14">CONCATENATE(A194,B194,C194,D194,E194,F194,G194,H194,I194,J194,K194,L194)</f>
-        <v>{3088, 1905, 1449, 2023,542},</v>
+        <v>{3088, 1905, 1449, 2023, 542},</v>
       </c>
       <c r="AE194" t="s">
         <v>18</v>
@@ -39771,7 +39771,7 @@
         <v>2049</v>
       </c>
       <c r="I195" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J195">
         <f>Dimmkurven!F196</f>
@@ -39785,7 +39785,7 @@
       </c>
       <c r="V195" t="str">
         <f t="shared" si="14"/>
-        <v>{3104, 1933, 1478, 2049,560},</v>
+        <v>{3104, 1933, 1478, 2049, 560},</v>
       </c>
       <c r="AE195" t="s">
         <v>18</v>
@@ -39856,7 +39856,7 @@
         <v>2075</v>
       </c>
       <c r="I196" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J196">
         <f>Dimmkurven!F197</f>
@@ -39870,7 +39870,7 @@
       </c>
       <c r="V196" t="str">
         <f t="shared" si="14"/>
-        <v>{3120, 1960, 1507, 2075,579},</v>
+        <v>{3120, 1960, 1507, 2075, 579},</v>
       </c>
       <c r="AE196" t="s">
         <v>18</v>
@@ -39941,7 +39941,7 @@
         <v>2101</v>
       </c>
       <c r="I197" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J197">
         <f>Dimmkurven!F198</f>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="V197" t="str">
         <f t="shared" si="14"/>
-        <v>{3136, 1989, 1536, 2101,598},</v>
+        <v>{3136, 1989, 1536, 2101, 598},</v>
       </c>
       <c r="AE197" t="s">
         <v>18</v>
@@ -40026,7 +40026,7 @@
         <v>2128</v>
       </c>
       <c r="I198" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J198">
         <f>Dimmkurven!F199</f>
@@ -40040,7 +40040,7 @@
       </c>
       <c r="V198" t="str">
         <f t="shared" si="14"/>
-        <v>{3152, 2017, 1566, 2128,618},</v>
+        <v>{3152, 2017, 1566, 2128, 618},</v>
       </c>
       <c r="AE198" t="s">
         <v>18</v>
@@ -40111,7 +40111,7 @@
         <v>2155</v>
       </c>
       <c r="I199" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J199">
         <f>Dimmkurven!F200</f>
@@ -40125,7 +40125,7 @@
       </c>
       <c r="V199" t="str">
         <f t="shared" si="14"/>
-        <v>{3168, 2046, 1596, 2155,638},</v>
+        <v>{3168, 2046, 1596, 2155, 638},</v>
       </c>
       <c r="AE199" t="s">
         <v>18</v>
@@ -40196,7 +40196,7 @@
         <v>2182</v>
       </c>
       <c r="I200" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J200">
         <f>Dimmkurven!F201</f>
@@ -40210,7 +40210,7 @@
       </c>
       <c r="V200" t="str">
         <f t="shared" si="14"/>
-        <v>{3184, 2075, 1627, 2182,659},</v>
+        <v>{3184, 2075, 1627, 2182, 659},</v>
       </c>
       <c r="AE200" t="s">
         <v>18</v>
@@ -40281,7 +40281,7 @@
         <v>2210</v>
       </c>
       <c r="I201" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J201">
         <f>Dimmkurven!F202</f>
@@ -40295,7 +40295,7 @@
       </c>
       <c r="V201" t="str">
         <f t="shared" si="14"/>
-        <v>{3200, 2104, 1658, 2210,681},</v>
+        <v>{3200, 2104, 1658, 2210, 681},</v>
       </c>
       <c r="AE201" t="s">
         <v>18</v>
@@ -40366,7 +40366,7 @@
         <v>2237</v>
       </c>
       <c r="I202" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J202">
         <f>Dimmkurven!F203</f>
@@ -40380,7 +40380,7 @@
       </c>
       <c r="V202" t="str">
         <f t="shared" si="14"/>
-        <v>{3216, 2133, 1689, 2237,704},</v>
+        <v>{3216, 2133, 1689, 2237, 704},</v>
       </c>
       <c r="AE202" t="s">
         <v>18</v>
@@ -40451,7 +40451,7 @@
         <v>2265</v>
       </c>
       <c r="I203" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J203">
         <f>Dimmkurven!F204</f>
@@ -40465,7 +40465,7 @@
       </c>
       <c r="V203" t="str">
         <f t="shared" si="14"/>
-        <v>{3232, 2163, 1721, 2265,727},</v>
+        <v>{3232, 2163, 1721, 2265, 727},</v>
       </c>
       <c r="AE203" t="s">
         <v>18</v>
@@ -40536,7 +40536,7 @@
         <v>2293</v>
       </c>
       <c r="I204" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J204">
         <f>Dimmkurven!F205</f>
@@ -40550,7 +40550,7 @@
       </c>
       <c r="V204" t="str">
         <f t="shared" si="14"/>
-        <v>{3248, 2193, 1754, 2293,751},</v>
+        <v>{3248, 2193, 1754, 2293, 751},</v>
       </c>
       <c r="AE204" t="s">
         <v>18</v>
@@ -40621,7 +40621,7 @@
         <v>2322</v>
       </c>
       <c r="I205" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J205">
         <f>Dimmkurven!F206</f>
@@ -40635,7 +40635,7 @@
       </c>
       <c r="V205" t="str">
         <f t="shared" si="14"/>
-        <v>{3264, 2223, 1787, 2322,776},</v>
+        <v>{3264, 2223, 1787, 2322, 776},</v>
       </c>
       <c r="AE205" t="s">
         <v>18</v>
@@ -40706,7 +40706,7 @@
         <v>2350</v>
       </c>
       <c r="I206" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J206">
         <f>Dimmkurven!F207</f>
@@ -40720,7 +40720,7 @@
       </c>
       <c r="V206" t="str">
         <f t="shared" si="14"/>
-        <v>{3280, 2254, 1820, 2350,802},</v>
+        <v>{3280, 2254, 1820, 2350, 802},</v>
       </c>
       <c r="AE206" t="s">
         <v>18</v>
@@ -40791,7 +40791,7 @@
         <v>2379</v>
       </c>
       <c r="I207" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J207">
         <f>Dimmkurven!F208</f>
@@ -40805,7 +40805,7 @@
       </c>
       <c r="V207" t="str">
         <f t="shared" si="14"/>
-        <v>{3296, 2284, 1854, 2379,828},</v>
+        <v>{3296, 2284, 1854, 2379, 828},</v>
       </c>
       <c r="AE207" t="s">
         <v>18</v>
@@ -40876,7 +40876,7 @@
         <v>2408</v>
       </c>
       <c r="I208" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J208">
         <f>Dimmkurven!F209</f>
@@ -40890,7 +40890,7 @@
       </c>
       <c r="V208" t="str">
         <f t="shared" si="14"/>
-        <v>{3312, 2315, 1888, 2408,856},</v>
+        <v>{3312, 2315, 1888, 2408, 856},</v>
       </c>
       <c r="AE208" t="s">
         <v>18</v>
@@ -40961,7 +40961,7 @@
         <v>2437</v>
       </c>
       <c r="I209" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J209">
         <f>Dimmkurven!F210</f>
@@ -40975,7 +40975,7 @@
       </c>
       <c r="V209" t="str">
         <f t="shared" si="14"/>
-        <v>{3328, 2347, 1923, 2437,884},</v>
+        <v>{3328, 2347, 1923, 2437, 884},</v>
       </c>
       <c r="AE209" t="s">
         <v>18</v>
@@ -41046,7 +41046,7 @@
         <v>2467</v>
       </c>
       <c r="I210" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J210">
         <f>Dimmkurven!F211</f>
@@ -41060,7 +41060,7 @@
       </c>
       <c r="V210" t="str">
         <f t="shared" si="14"/>
-        <v>{3344, 2378, 1958, 2467,913},</v>
+        <v>{3344, 2378, 1958, 2467, 913},</v>
       </c>
       <c r="AE210" t="s">
         <v>18</v>
@@ -41131,7 +41131,7 @@
         <v>2497</v>
       </c>
       <c r="I211" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J211">
         <f>Dimmkurven!F212</f>
@@ -41145,7 +41145,7 @@
       </c>
       <c r="V211" t="str">
         <f t="shared" si="14"/>
-        <v>{3360, 2410, 1994, 2497,944},</v>
+        <v>{3360, 2410, 1994, 2497, 944},</v>
       </c>
       <c r="AE211" t="s">
         <v>18</v>
@@ -41216,7 +41216,7 @@
         <v>2527</v>
       </c>
       <c r="I212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J212">
         <f>Dimmkurven!F213</f>
@@ -41230,7 +41230,7 @@
       </c>
       <c r="V212" t="str">
         <f t="shared" si="14"/>
-        <v>{3376, 2442, 2030, 2527,975},</v>
+        <v>{3376, 2442, 2030, 2527, 975},</v>
       </c>
       <c r="AE212" t="s">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         <v>2557</v>
       </c>
       <c r="I213" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J213">
         <f>Dimmkurven!F214</f>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="V213" t="str">
         <f t="shared" si="14"/>
-        <v>{3392, 2475, 2067, 2557,1007},</v>
+        <v>{3392, 2475, 2067, 2557, 1007},</v>
       </c>
       <c r="AE213" t="s">
         <v>18</v>
@@ -41386,7 +41386,7 @@
         <v>2587</v>
       </c>
       <c r="I214" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J214">
         <f>Dimmkurven!F215</f>
@@ -41400,7 +41400,7 @@
       </c>
       <c r="V214" t="str">
         <f t="shared" si="14"/>
-        <v>{3408, 2507, 2104, 2587,1041},</v>
+        <v>{3408, 2507, 2104, 2587, 1041},</v>
       </c>
       <c r="AE214" t="s">
         <v>18</v>
@@ -41471,7 +41471,7 @@
         <v>2618</v>
       </c>
       <c r="I215" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J215">
         <f>Dimmkurven!F216</f>
@@ -41485,7 +41485,7 @@
       </c>
       <c r="V215" t="str">
         <f t="shared" si="14"/>
-        <v>{3424, 2540, 2141, 2618,1075},</v>
+        <v>{3424, 2540, 2141, 2618, 1075},</v>
       </c>
       <c r="AE215" t="s">
         <v>18</v>
@@ -41556,7 +41556,7 @@
         <v>2649</v>
       </c>
       <c r="I216" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J216">
         <f>Dimmkurven!F217</f>
@@ -41570,7 +41570,7 @@
       </c>
       <c r="V216" t="str">
         <f t="shared" si="14"/>
-        <v>{3440, 2573, 2179, 2649,1111},</v>
+        <v>{3440, 2573, 2179, 2649, 1111},</v>
       </c>
       <c r="AE216" t="s">
         <v>18</v>
@@ -41641,7 +41641,7 @@
         <v>2680</v>
       </c>
       <c r="I217" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J217">
         <f>Dimmkurven!F218</f>
@@ -41655,7 +41655,7 @@
       </c>
       <c r="V217" t="str">
         <f t="shared" si="14"/>
-        <v>{3456, 2607, 2218, 2680,1148},</v>
+        <v>{3456, 2607, 2218, 2680, 1148},</v>
       </c>
       <c r="AE217" t="s">
         <v>18</v>
@@ -41726,7 +41726,7 @@
         <v>2712</v>
       </c>
       <c r="I218" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J218">
         <f>Dimmkurven!F219</f>
@@ -41740,7 +41740,7 @@
       </c>
       <c r="V218" t="str">
         <f t="shared" si="14"/>
-        <v>{3472, 2641, 2257, 2712,1186},</v>
+        <v>{3472, 2641, 2257, 2712, 1186},</v>
       </c>
       <c r="AE218" t="s">
         <v>18</v>
@@ -41811,7 +41811,7 @@
         <v>2743</v>
       </c>
       <c r="I219" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J219">
         <f>Dimmkurven!F220</f>
@@ -41825,7 +41825,7 @@
       </c>
       <c r="V219" t="str">
         <f t="shared" si="14"/>
-        <v>{3488, 2675, 2297, 2743,1225},</v>
+        <v>{3488, 2675, 2297, 2743, 1225},</v>
       </c>
       <c r="AE219" t="s">
         <v>18</v>
@@ -41896,7 +41896,7 @@
         <v>2775</v>
       </c>
       <c r="I220" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J220">
         <f>Dimmkurven!F221</f>
@@ -41910,7 +41910,7 @@
       </c>
       <c r="V220" t="str">
         <f t="shared" si="14"/>
-        <v>{3504, 2709, 2337, 2775,1266},</v>
+        <v>{3504, 2709, 2337, 2775, 1266},</v>
       </c>
       <c r="AE220" t="s">
         <v>18</v>
@@ -41981,7 +41981,7 @@
         <v>2807</v>
       </c>
       <c r="I221" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J221">
         <f>Dimmkurven!F222</f>
@@ -41995,7 +41995,7 @@
       </c>
       <c r="V221" t="str">
         <f t="shared" si="14"/>
-        <v>{3520, 2744, 2377, 2807,1308},</v>
+        <v>{3520, 2744, 2377, 2807, 1308},</v>
       </c>
       <c r="AE221" t="s">
         <v>18</v>
@@ -42066,7 +42066,7 @@
         <v>2840</v>
       </c>
       <c r="I222" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J222">
         <f>Dimmkurven!F223</f>
@@ -42080,7 +42080,7 @@
       </c>
       <c r="V222" t="str">
         <f t="shared" si="14"/>
-        <v>{3536, 2779, 2418, 2840,1351},</v>
+        <v>{3536, 2779, 2418, 2840, 1351},</v>
       </c>
       <c r="AE222" t="s">
         <v>18</v>
@@ -42151,7 +42151,7 @@
         <v>2872</v>
       </c>
       <c r="I223" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J223">
         <f>Dimmkurven!F224</f>
@@ -42165,7 +42165,7 @@
       </c>
       <c r="V223" t="str">
         <f t="shared" si="14"/>
-        <v>{3552, 2814, 2460, 2872,1396},</v>
+        <v>{3552, 2814, 2460, 2872, 1396},</v>
       </c>
       <c r="AE223" t="s">
         <v>18</v>
@@ -42236,7 +42236,7 @@
         <v>2905</v>
       </c>
       <c r="I224" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J224">
         <f>Dimmkurven!F225</f>
@@ -42250,7 +42250,7 @@
       </c>
       <c r="V224" t="str">
         <f t="shared" si="14"/>
-        <v>{3568, 2849, 2502, 2905,1442},</v>
+        <v>{3568, 2849, 2502, 2905, 1442},</v>
       </c>
       <c r="AE224" t="s">
         <v>18</v>
@@ -42321,7 +42321,7 @@
         <v>2938</v>
       </c>
       <c r="I225" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J225">
         <f>Dimmkurven!F226</f>
@@ -42335,7 +42335,7 @@
       </c>
       <c r="V225" t="str">
         <f t="shared" si="14"/>
-        <v>{3584, 2885, 2545, 2938,1490},</v>
+        <v>{3584, 2885, 2545, 2938, 1490},</v>
       </c>
       <c r="AE225" t="s">
         <v>18</v>
@@ -42406,7 +42406,7 @@
         <v>2972</v>
       </c>
       <c r="I226" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J226">
         <f>Dimmkurven!F227</f>
@@ -42420,7 +42420,7 @@
       </c>
       <c r="V226" t="str">
         <f t="shared" si="14"/>
-        <v>{3600, 2921, 2588, 2972,1539},</v>
+        <v>{3600, 2921, 2588, 2972, 1539},</v>
       </c>
       <c r="AE226" t="s">
         <v>18</v>
@@ -42491,7 +42491,7 @@
         <v>3006</v>
       </c>
       <c r="I227" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J227">
         <f>Dimmkurven!F228</f>
@@ -42505,7 +42505,7 @@
       </c>
       <c r="V227" t="str">
         <f t="shared" si="14"/>
-        <v>{3616, 2957, 2632, 3006,1590},</v>
+        <v>{3616, 2957, 2632, 3006, 1590},</v>
       </c>
       <c r="AE227" t="s">
         <v>18</v>
@@ -42576,7 +42576,7 @@
         <v>3039</v>
       </c>
       <c r="I228" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J228">
         <f>Dimmkurven!F229</f>
@@ -42590,7 +42590,7 @@
       </c>
       <c r="V228" t="str">
         <f t="shared" si="14"/>
-        <v>{3632, 2994, 2676, 3039,1643},</v>
+        <v>{3632, 2994, 2676, 3039, 1643},</v>
       </c>
       <c r="AE228" t="s">
         <v>18</v>
@@ -42661,7 +42661,7 @@
         <v>3074</v>
       </c>
       <c r="I229" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J229">
         <f>Dimmkurven!F230</f>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="V229" t="str">
         <f t="shared" si="14"/>
-        <v>{3648, 3031, 2721, 3074,1697},</v>
+        <v>{3648, 3031, 2721, 3074, 1697},</v>
       </c>
       <c r="AE229" t="s">
         <v>18</v>
@@ -42746,7 +42746,7 @@
         <v>3108</v>
       </c>
       <c r="I230" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J230">
         <f>Dimmkurven!F231</f>
@@ -42760,7 +42760,7 @@
       </c>
       <c r="V230" t="str">
         <f t="shared" si="14"/>
-        <v>{3664, 3068, 2767, 3108,1754},</v>
+        <v>{3664, 3068, 2767, 3108, 1754},</v>
       </c>
       <c r="AE230" t="s">
         <v>18</v>
@@ -42831,7 +42831,7 @@
         <v>3143</v>
       </c>
       <c r="I231" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J231">
         <f>Dimmkurven!F232</f>
@@ -42845,7 +42845,7 @@
       </c>
       <c r="V231" t="str">
         <f t="shared" si="14"/>
-        <v>{3680, 3106, 2813, 3143,1812},</v>
+        <v>{3680, 3106, 2813, 3143, 1812},</v>
       </c>
       <c r="AE231" t="s">
         <v>18</v>
@@ -42916,7 +42916,7 @@
         <v>3178</v>
       </c>
       <c r="I232" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J232">
         <f>Dimmkurven!F233</f>
@@ -42930,7 +42930,7 @@
       </c>
       <c r="V232" t="str">
         <f t="shared" si="14"/>
-        <v>{3696, 3144, 2859, 3178,1872},</v>
+        <v>{3696, 3144, 2859, 3178, 1872},</v>
       </c>
       <c r="AE232" t="s">
         <v>18</v>
@@ -43001,7 +43001,7 @@
         <v>3213</v>
       </c>
       <c r="I233" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J233">
         <f>Dimmkurven!F234</f>
@@ -43015,7 +43015,7 @@
       </c>
       <c r="V233" t="str">
         <f t="shared" si="14"/>
-        <v>{3712, 3182, 2906, 3213,1934},</v>
+        <v>{3712, 3182, 2906, 3213, 1934},</v>
       </c>
       <c r="AE233" t="s">
         <v>18</v>
@@ -43086,7 +43086,7 @@
         <v>3248</v>
       </c>
       <c r="I234" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J234">
         <f>Dimmkurven!F235</f>
@@ -43100,7 +43100,7 @@
       </c>
       <c r="V234" t="str">
         <f t="shared" si="14"/>
-        <v>{3728, 3220, 2954, 3248,1998},</v>
+        <v>{3728, 3220, 2954, 3248, 1998},</v>
       </c>
       <c r="AE234" t="s">
         <v>18</v>
@@ -43171,7 +43171,7 @@
         <v>3284</v>
       </c>
       <c r="I235" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J235">
         <f>Dimmkurven!F236</f>
@@ -43185,7 +43185,7 @@
       </c>
       <c r="V235" t="str">
         <f t="shared" si="14"/>
-        <v>{3744, 3259, 3002, 3284,2064},</v>
+        <v>{3744, 3259, 3002, 3284, 2064},</v>
       </c>
       <c r="AE235" t="s">
         <v>18</v>
@@ -43256,7 +43256,7 @@
         <v>3320</v>
       </c>
       <c r="I236" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J236">
         <f>Dimmkurven!F237</f>
@@ -43270,7 +43270,7 @@
       </c>
       <c r="V236" t="str">
         <f t="shared" si="14"/>
-        <v>{3760, 3298, 3051, 3320,2133},</v>
+        <v>{3760, 3298, 3051, 3320, 2133},</v>
       </c>
       <c r="AE236" t="s">
         <v>18</v>
@@ -43341,7 +43341,7 @@
         <v>3356</v>
       </c>
       <c r="I237" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J237">
         <f>Dimmkurven!F238</f>
@@ -43355,7 +43355,7 @@
       </c>
       <c r="V237" t="str">
         <f t="shared" si="14"/>
-        <v>{3776, 3337, 3101, 3356,2203},</v>
+        <v>{3776, 3337, 3101, 3356, 2203},</v>
       </c>
       <c r="AE237" t="s">
         <v>18</v>
@@ -43426,7 +43426,7 @@
         <v>3393</v>
       </c>
       <c r="I238" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J238">
         <f>Dimmkurven!F239</f>
@@ -43440,7 +43440,7 @@
       </c>
       <c r="V238" t="str">
         <f t="shared" si="14"/>
-        <v>{3792, 3376, 3151, 3393,2277},</v>
+        <v>{3792, 3376, 3151, 3393, 2277},</v>
       </c>
       <c r="AE238" t="s">
         <v>18</v>
@@ -43511,7 +43511,7 @@
         <v>3430</v>
       </c>
       <c r="I239" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J239">
         <f>Dimmkurven!F240</f>
@@ -43525,7 +43525,7 @@
       </c>
       <c r="V239" t="str">
         <f t="shared" si="14"/>
-        <v>{3808, 3416, 3201, 3430,2352},</v>
+        <v>{3808, 3416, 3201, 3430, 2352},</v>
       </c>
       <c r="AE239" t="s">
         <v>18</v>
@@ -43596,7 +43596,7 @@
         <v>3467</v>
       </c>
       <c r="I240" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J240">
         <f>Dimmkurven!F241</f>
@@ -43610,7 +43610,7 @@
       </c>
       <c r="V240" t="str">
         <f t="shared" si="14"/>
-        <v>{3824, 3457, 3252, 3467,2430},</v>
+        <v>{3824, 3457, 3252, 3467, 2430},</v>
       </c>
       <c r="AE240" t="s">
         <v>18</v>
@@ -43681,7 +43681,7 @@
         <v>3504</v>
       </c>
       <c r="I241" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J241">
         <f>Dimmkurven!F242</f>
@@ -43695,7 +43695,7 @@
       </c>
       <c r="V241" t="str">
         <f t="shared" si="14"/>
-        <v>{3840, 3497, 3304, 3504,2511},</v>
+        <v>{3840, 3497, 3304, 3504, 2511},</v>
       </c>
       <c r="AE241" t="s">
         <v>18</v>
@@ -43766,7 +43766,7 @@
         <v>3542</v>
       </c>
       <c r="I242" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J242">
         <f>Dimmkurven!F243</f>
@@ -43780,7 +43780,7 @@
       </c>
       <c r="V242" t="str">
         <f t="shared" si="14"/>
-        <v>{3856, 3538, 3357, 3542,2594},</v>
+        <v>{3856, 3538, 3357, 3542, 2594},</v>
       </c>
       <c r="AE242" t="s">
         <v>18</v>
@@ -43851,7 +43851,7 @@
         <v>3579</v>
       </c>
       <c r="I243" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J243">
         <f>Dimmkurven!F244</f>
@@ -43865,7 +43865,7 @@
       </c>
       <c r="V243" t="str">
         <f t="shared" si="14"/>
-        <v>{3872, 3579, 3410, 3579,2680},</v>
+        <v>{3872, 3579, 3410, 3579, 2680},</v>
       </c>
       <c r="AE243" t="s">
         <v>18</v>
@@ -43936,7 +43936,7 @@
         <v>3617</v>
       </c>
       <c r="I244" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J244">
         <f>Dimmkurven!F245</f>
@@ -43950,7 +43950,7 @@
       </c>
       <c r="V244" t="str">
         <f t="shared" si="14"/>
-        <v>{3888, 3620, 3463, 3617,2769},</v>
+        <v>{3888, 3620, 3463, 3617, 2769},</v>
       </c>
       <c r="AE244" t="s">
         <v>18</v>
@@ -44021,7 +44021,7 @@
         <v>3656</v>
       </c>
       <c r="I245" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J245">
         <f>Dimmkurven!F246</f>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="V245" t="str">
         <f t="shared" si="14"/>
-        <v>{3904, 3662, 3517, 3656,2860},</v>
+        <v>{3904, 3662, 3517, 3656, 2860},</v>
       </c>
       <c r="AE245" t="s">
         <v>18</v>
@@ -44106,7 +44106,7 @@
         <v>3694</v>
       </c>
       <c r="I246" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J246">
         <f>Dimmkurven!F247</f>
@@ -44120,7 +44120,7 @@
       </c>
       <c r="V246" t="str">
         <f t="shared" si="14"/>
-        <v>{3920, 3704, 3572, 3694,2955},</v>
+        <v>{3920, 3704, 3572, 3694, 2955},</v>
       </c>
       <c r="AE246" t="s">
         <v>18</v>
@@ -44191,7 +44191,7 @@
         <v>3733</v>
       </c>
       <c r="I247" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J247">
         <f>Dimmkurven!F248</f>
@@ -44205,7 +44205,7 @@
       </c>
       <c r="V247" t="str">
         <f t="shared" si="14"/>
-        <v>{3936, 3746, 3628, 3733,3053},</v>
+        <v>{3936, 3746, 3628, 3733, 3053},</v>
       </c>
       <c r="AE247" t="s">
         <v>18</v>
@@ -44276,7 +44276,7 @@
         <v>3773</v>
       </c>
       <c r="I248" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J248">
         <f>Dimmkurven!F249</f>
@@ -44290,7 +44290,7 @@
       </c>
       <c r="V248" t="str">
         <f t="shared" si="14"/>
-        <v>{3952, 3789, 3684, 3773,3154},</v>
+        <v>{3952, 3789, 3684, 3773, 3154},</v>
       </c>
       <c r="AE248" t="s">
         <v>18</v>
@@ -44361,7 +44361,7 @@
         <v>3812</v>
       </c>
       <c r="I249" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J249">
         <f>Dimmkurven!F250</f>
@@ -44375,7 +44375,7 @@
       </c>
       <c r="V249" t="str">
         <f t="shared" si="14"/>
-        <v>{3968, 3832, 3741, 3812,3259},</v>
+        <v>{3968, 3832, 3741, 3812, 3259},</v>
       </c>
       <c r="AE249" t="s">
         <v>18</v>
@@ -44446,7 +44446,7 @@
         <v>3852</v>
       </c>
       <c r="I250" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J250">
         <f>Dimmkurven!F251</f>
@@ -44460,7 +44460,7 @@
       </c>
       <c r="V250" t="str">
         <f t="shared" si="14"/>
-        <v>{3984, 3875, 3798, 3852,3367},</v>
+        <v>{3984, 3875, 3798, 3852, 3367},</v>
       </c>
       <c r="AE250" t="s">
         <v>18</v>
@@ -44531,7 +44531,7 @@
         <v>3892</v>
       </c>
       <c r="I251" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J251">
         <f>Dimmkurven!F252</f>
@@ -44545,7 +44545,7 @@
       </c>
       <c r="V251" t="str">
         <f t="shared" si="14"/>
-        <v>{4000, 3919, 3856, 3892,3479},</v>
+        <v>{4000, 3919, 3856, 3892, 3479},</v>
       </c>
       <c r="AE251" t="s">
         <v>18</v>
@@ -44616,7 +44616,7 @@
         <v>3932</v>
       </c>
       <c r="I252" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J252">
         <f>Dimmkurven!F253</f>
@@ -44630,7 +44630,7 @@
       </c>
       <c r="V252" t="str">
         <f t="shared" si="14"/>
-        <v>{4016, 3962, 3915, 3932,3594},</v>
+        <v>{4016, 3962, 3915, 3932, 3594},</v>
       </c>
       <c r="AE252" t="s">
         <v>18</v>
@@ -44701,7 +44701,7 @@
         <v>3973</v>
       </c>
       <c r="I253" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J253">
         <f>Dimmkurven!F254</f>
@@ -44715,7 +44715,7 @@
       </c>
       <c r="V253" t="str">
         <f t="shared" si="14"/>
-        <v>{4032, 4007, 3974, 3973,3713},</v>
+        <v>{4032, 4007, 3974, 3973, 3713},</v>
       </c>
       <c r="AE253" t="s">
         <v>18</v>
@@ -44786,7 +44786,7 @@
         <v>4013</v>
       </c>
       <c r="I254" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J254">
         <f>Dimmkurven!F255</f>
@@ -44800,7 +44800,7 @@
       </c>
       <c r="V254" t="str">
         <f t="shared" si="14"/>
-        <v>{4048, 4051, 4034, 4013,3836},</v>
+        <v>{4048, 4051, 4034, 4013, 3836},</v>
       </c>
       <c r="AE254" t="s">
         <v>18</v>
@@ -44871,7 +44871,7 @@
         <v>4055</v>
       </c>
       <c r="I255" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J255">
         <f>Dimmkurven!F256</f>
@@ -44885,7 +44885,7 @@
       </c>
       <c r="V255" t="str">
         <f t="shared" si="14"/>
-        <v>{4064, 4070, 4059, 4055,3964},</v>
+        <v>{4064, 4070, 4059, 4055, 3964},</v>
       </c>
       <c r="AE255" t="s">
         <v>18</v>
@@ -44956,7 +44956,7 @@
         <v>4095</v>
       </c>
       <c r="I256" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J256">
         <f>Dimmkurven!F257</f>
@@ -44970,7 +44970,7 @@
       </c>
       <c r="V256" t="str">
         <f>CONCATENATE(A256,B256,C256,D256,E256,F256,G256,H256,I256,J256,K256,L256)</f>
-        <v>{4095, 4095, 4095, 4095,4095}};</v>
+        <v>{4095, 4095, 4095, 4095, 4095}};</v>
       </c>
       <c r="AE256" t="s">
         <v>18</v>

--- a/doc/Definitions.xlsx
+++ b/doc/Definitions.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenKNX_Module\OAM-LEDModule\OAM-LEDModule\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC8FD60-88C9-4AF6-B312-002B22B2E1B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6527ACD3-0459-4063-9FE2-BC13A57BA7DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dimmkurven" sheetId="1" r:id="rId1"/>
     <sheet name="Dimmkurve Array" sheetId="5" r:id="rId2"/>
     <sheet name="Anschlussplan" sheetId="2" r:id="rId3"/>
     <sheet name="Helper" sheetId="6" r:id="rId4"/>
+    <sheet name="OperationMode" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="67">
   <si>
     <t>Man nimmt an, z.B. bei doppelter Beleuchtung erhöht sich die „gefühlte“ Helligkeit nur um Faktor 1,4.</t>
   </si>
@@ -150,12 +151,87 @@
   <si>
     <t xml:space="preserve"> E - DALI</t>
   </si>
+  <si>
+    <t>EK1</t>
+  </si>
+  <si>
+    <t>EK2</t>
+  </si>
+  <si>
+    <t>EK3</t>
+  </si>
+  <si>
+    <t>EK4</t>
+  </si>
+  <si>
+    <t>EK5</t>
+  </si>
+  <si>
+    <t>EK6</t>
+  </si>
+  <si>
+    <t>EK7</t>
+  </si>
+  <si>
+    <t>EK8</t>
+  </si>
+  <si>
+    <t>EK9</t>
+  </si>
+  <si>
+    <t>EK10</t>
+  </si>
+  <si>
+    <t>EK11</t>
+  </si>
+  <si>
+    <t>EK12</t>
+  </si>
+  <si>
+    <t>TW1</t>
+  </si>
+  <si>
+    <t>TW2</t>
+  </si>
+  <si>
+    <t>TW3</t>
+  </si>
+  <si>
+    <t>TW4</t>
+  </si>
+  <si>
+    <t>TW5</t>
+  </si>
+  <si>
+    <t>TW6</t>
+  </si>
+  <si>
+    <t>RGB1</t>
+  </si>
+  <si>
+    <t>RGB2</t>
+  </si>
+  <si>
+    <t>RGB3</t>
+  </si>
+  <si>
+    <t>RGB4</t>
+  </si>
+  <si>
+    <t>6ch</t>
+  </si>
+  <si>
+    <t>12ch</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +243,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -181,8 +257,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +328,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -327,11 +430,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -382,6 +542,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -20370,7 +20562,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AZ256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="V1" sqref="V1:V256"/>
     </sheetView>
   </sheetViews>
@@ -45409,4 +45601,924 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136EB513-F8EA-4796-97C7-8BFD4642D47D}">
+  <dimension ref="A1:AS16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:AT14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" customWidth="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.85546875" customWidth="1"/>
+    <col min="34" max="34" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.85546875" customWidth="1"/>
+    <col min="36" max="36" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.85546875" customWidth="1"/>
+    <col min="38" max="38" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" customWidth="1"/>
+    <col min="40" max="40" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.5703125" customWidth="1"/>
+    <col min="42" max="42" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.5703125" customWidth="1"/>
+    <col min="44" max="44" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="24"/>
+      <c r="P1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="24"/>
+      <c r="T1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="24"/>
+      <c r="V1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="24"/>
+      <c r="X1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS1" s="24"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS2" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="29"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="29"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="29"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="29"/>
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="29"/>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="29"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="29"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="29"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="29"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11" s="30"/>
+      <c r="U11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" s="30"/>
+      <c r="W11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="32"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="32"/>
+      <c r="AA12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK12" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="30"/>
+      <c r="AS12" s="32"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="32"/>
+      <c r="AA13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="30"/>
+      <c r="AS13" s="32"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AM14" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO14" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ14" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR14" s="30"/>
+      <c r="AS14" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="32"/>
+      <c r="AA15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AM15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="30"/>
+      <c r="AS15" s="32"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="32"/>
+      <c r="AA16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AM16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>